--- a/docs/data/uk_la_past_current/1.0.5/uk_la_past_current.xlsx
+++ b/docs/data/uk_la_past_current/1.0.5/uk_la_past_current.xlsx
@@ -20,7 +20,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="13114" uniqueCount="5167">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="13078" uniqueCount="5166">
   <si>
     <t>Dataset</t>
   </si>
@@ -13480,22 +13480,19 @@
     <t>No</t>
   </si>
   <si>
-    <t>[, ]</t>
-  </si>
-  <si>
-    <t>[, ', N, o, r, t, h, e, r, n,  , I, r, e, l, a, n, d, ', ,,  , ', S, c, o, t, l, a, n, d, ', ,,  , ', E, n, g, l, a, n, d, ', ,,  , ', W, a, l, e, s, ', ]</t>
-  </si>
-  <si>
-    <t>[, ', N, I, D, ', ,,  , ', S, C, O, ', ,,  , ', N, M, D, ', ,,  , ', W, P, A, ', ,,  , ', U, A, ', ,,  , ', L, B, O, ', ,,  , ', M, D, ', ,,  , ', C, T, Y, ', ,,  , ', C, O, M, B, ', ,,  , ', S, R, A, ', ,,  , ', C, C, ', ]</t>
-  </si>
-  <si>
-    <t>[, ', N, I,  , d, i, s, t, r, i, c, t, ', ,,  , ', S, c, o, t, t, i, s, h,  , u, n, i, t, a, r, y,  , a, u, t, h, o, r, i, t, y, ', ,,  , ', N, o, n, -, m, e, t, r, o, p, o, l, i, t, a, n,  , d, i, s, t, r, i, c, t, ', ,,  , ', W, e, l, s, h,  , u, n, i, t, a, r, y,  , a, u, t, h, o, r, i, t, y, ', ,,  , ', U, n, i, t, a, r, y,  , a, u, t, h, o, r, i, t, y, ', ,,  , ', L, o, n, d, o, n,  , b, o, r, o, u, g, h, ', ,,  , ', M, e, t, r, o, p, o, l, i, t, a, n,  , d, i, s, t, r, i, c, t, ', ,,  , ', C, o, u, n, t, y, ', ,,  , ', C, o, m, b, i, n, e, d,  , a, u, t, h, o, r, i, t, y, ', ,,  , ', S, t, r, a, t, e, g, i, c,  , R, e, g, i, o, n, a, l,  , A, u, t, h, o, r, i, t, y, ', ,,  , ', C, i, t, y,  , c, o, r, p, o, r, a, t, i, o, n, ', ]</t>
-  </si>
-  <si>
-    <t>[, T, r, u, e, ,,  , F, a, l, s, e, ]</t>
-  </si>
-  <si>
-    <t>[, ', n, i,  , d, i, s, t, r, i, c, t, ', ,,  , ', u, n, i, t, a, r, y, ', ,,  , ', l, o, w, e, r,  , t, i, e, r, ', ,,  , ', u, p, p, e, r,  , t, i, e, r, ', ,,  , ', c, o, m, b, i, n, e, d, ', ]</t>
+    <t>Northern Ireland, Scotland, England, Wales</t>
+  </si>
+  <si>
+    <t>NID, SCO, NMD, WPA, UA, LBO, MD, CTY, COMB, SRA, CC</t>
+  </si>
+  <si>
+    <t>NI district, Scottish unitary authority, Non-metropolitan district, Welsh unitary authority, Unitary authority, London borough, Metropolitan district, County, Combined authority, Strategic Regional Authority, City corporation</t>
+  </si>
+  <si>
+    <t>True, False</t>
+  </si>
+  <si>
+    <t>ni district, unitary, lower tier, upper tier, combined</t>
   </si>
   <si>
     <t>S12000046</t>
@@ -56115,7 +56112,7 @@
     <col min="3" max="3" width="11.7109375" customWidth="1"/>
     <col min="4" max="4" width="110.7109375" customWidth="1"/>
     <col min="5" max="5" width="10.7109375" customWidth="1"/>
-    <col min="6" max="6" width="749.7109375" customWidth="1"/>
+    <col min="6" max="6" width="229.7109375" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:6">
@@ -56154,9 +56151,6 @@
       <c r="E2" t="s">
         <v>4484</v>
       </c>
-      <c r="F2" t="s">
-        <v>4486</v>
-      </c>
     </row>
     <row r="3" spans="1:6">
       <c r="A3" t="s">
@@ -56174,9 +56168,6 @@
       <c r="E3" t="s">
         <v>4484</v>
       </c>
-      <c r="F3" t="s">
-        <v>4486</v>
-      </c>
     </row>
     <row r="4" spans="1:6">
       <c r="A4" t="s">
@@ -56194,9 +56185,6 @@
       <c r="E4" t="s">
         <v>4484</v>
       </c>
-      <c r="F4" t="s">
-        <v>4486</v>
-      </c>
     </row>
     <row r="5" spans="1:6">
       <c r="A5" t="s">
@@ -56214,9 +56202,6 @@
       <c r="E5" t="s">
         <v>4485</v>
       </c>
-      <c r="F5" t="s">
-        <v>4486</v>
-      </c>
     </row>
     <row r="6" spans="1:6">
       <c r="A6" t="s">
@@ -56234,9 +56219,6 @@
       <c r="E6" t="s">
         <v>4485</v>
       </c>
-      <c r="F6" t="s">
-        <v>4486</v>
-      </c>
     </row>
     <row r="7" spans="1:6">
       <c r="A7" t="s">
@@ -56254,9 +56236,6 @@
       <c r="E7" t="s">
         <v>4485</v>
       </c>
-      <c r="F7" t="s">
-        <v>4486</v>
-      </c>
     </row>
     <row r="8" spans="1:6">
       <c r="A8" t="s">
@@ -56274,9 +56253,6 @@
       <c r="E8" t="s">
         <v>4485</v>
       </c>
-      <c r="F8" t="s">
-        <v>4486</v>
-      </c>
     </row>
     <row r="9" spans="1:6">
       <c r="A9" t="s">
@@ -56295,7 +56271,7 @@
         <v>4485</v>
       </c>
       <c r="F9" t="s">
-        <v>4487</v>
+        <v>4486</v>
       </c>
     </row>
     <row r="10" spans="1:6">
@@ -56314,9 +56290,6 @@
       <c r="E10" t="s">
         <v>4485</v>
       </c>
-      <c r="F10" t="s">
-        <v>4486</v>
-      </c>
     </row>
     <row r="11" spans="1:6">
       <c r="A11" t="s">
@@ -56335,7 +56308,7 @@
         <v>4485</v>
       </c>
       <c r="F11" t="s">
-        <v>4488</v>
+        <v>4487</v>
       </c>
     </row>
     <row r="12" spans="1:6">
@@ -56355,7 +56328,7 @@
         <v>4485</v>
       </c>
       <c r="F12" t="s">
-        <v>4489</v>
+        <v>4488</v>
       </c>
     </row>
     <row r="13" spans="1:6">
@@ -56374,9 +56347,6 @@
       <c r="E13" t="s">
         <v>4485</v>
       </c>
-      <c r="F13" t="s">
-        <v>4486</v>
-      </c>
     </row>
     <row r="14" spans="1:6">
       <c r="A14" t="s">
@@ -56394,9 +56364,6 @@
       <c r="E14" t="s">
         <v>4485</v>
       </c>
-      <c r="F14" t="s">
-        <v>4486</v>
-      </c>
     </row>
     <row r="15" spans="1:6">
       <c r="A15" t="s">
@@ -56414,9 +56381,6 @@
       <c r="E15" t="s">
         <v>4484</v>
       </c>
-      <c r="F15" t="s">
-        <v>4486</v>
-      </c>
     </row>
     <row r="16" spans="1:6">
       <c r="A16" t="s">
@@ -56434,9 +56398,6 @@
       <c r="E16" t="s">
         <v>4485</v>
       </c>
-      <c r="F16" t="s">
-        <v>4486</v>
-      </c>
     </row>
     <row r="17" spans="1:6">
       <c r="A17" t="s">
@@ -56454,9 +56415,6 @@
       <c r="E17" t="s">
         <v>4485</v>
       </c>
-      <c r="F17" t="s">
-        <v>4486</v>
-      </c>
     </row>
     <row r="18" spans="1:6">
       <c r="A18" t="s">
@@ -56475,7 +56433,7 @@
         <v>4485</v>
       </c>
       <c r="F18" t="s">
-        <v>4490</v>
+        <v>4489</v>
       </c>
     </row>
     <row r="19" spans="1:6">
@@ -56494,9 +56452,6 @@
       <c r="E19" t="s">
         <v>4485</v>
       </c>
-      <c r="F19" t="s">
-        <v>4486</v>
-      </c>
     </row>
     <row r="20" spans="1:6">
       <c r="A20" t="s">
@@ -56514,9 +56469,6 @@
       <c r="E20" t="s">
         <v>4485</v>
       </c>
-      <c r="F20" t="s">
-        <v>4486</v>
-      </c>
     </row>
     <row r="21" spans="1:6">
       <c r="A21" t="s">
@@ -56534,9 +56486,6 @@
       <c r="E21" t="s">
         <v>4485</v>
       </c>
-      <c r="F21" t="s">
-        <v>4486</v>
-      </c>
     </row>
     <row r="22" spans="1:6">
       <c r="A22" t="s">
@@ -56554,9 +56503,6 @@
       <c r="E22" t="s">
         <v>4485</v>
       </c>
-      <c r="F22" t="s">
-        <v>4486</v>
-      </c>
     </row>
     <row r="23" spans="1:6">
       <c r="A23" t="s">
@@ -56574,9 +56520,6 @@
       <c r="E23" t="s">
         <v>4485</v>
       </c>
-      <c r="F23" t="s">
-        <v>4486</v>
-      </c>
     </row>
     <row r="24" spans="1:6">
       <c r="A24" t="s">
@@ -56594,9 +56537,6 @@
       <c r="E24" t="s">
         <v>4485</v>
       </c>
-      <c r="F24" t="s">
-        <v>4486</v>
-      </c>
     </row>
     <row r="25" spans="1:6">
       <c r="A25" t="s">
@@ -56614,9 +56554,6 @@
       <c r="E25" t="s">
         <v>4485</v>
       </c>
-      <c r="F25" t="s">
-        <v>4486</v>
-      </c>
     </row>
     <row r="26" spans="1:6">
       <c r="A26" t="s">
@@ -56634,9 +56571,6 @@
       <c r="E26" t="s">
         <v>4485</v>
       </c>
-      <c r="F26" t="s">
-        <v>4486</v>
-      </c>
     </row>
     <row r="27" spans="1:6">
       <c r="A27" t="s">
@@ -56654,9 +56588,6 @@
       <c r="E27" t="s">
         <v>4485</v>
       </c>
-      <c r="F27" t="s">
-        <v>4486</v>
-      </c>
     </row>
     <row r="28" spans="1:6">
       <c r="A28" t="s">
@@ -56674,9 +56605,6 @@
       <c r="E28" t="s">
         <v>4485</v>
       </c>
-      <c r="F28" t="s">
-        <v>4486</v>
-      </c>
     </row>
     <row r="29" spans="1:6">
       <c r="A29" t="s">
@@ -56695,7 +56623,7 @@
         <v>4485</v>
       </c>
       <c r="F29" t="s">
-        <v>4491</v>
+        <v>4490</v>
       </c>
     </row>
     <row r="30" spans="1:6">
@@ -56715,7 +56643,7 @@
         <v>4485</v>
       </c>
       <c r="F30" t="s">
-        <v>4490</v>
+        <v>4489</v>
       </c>
     </row>
     <row r="31" spans="1:6">
@@ -56734,9 +56662,6 @@
       <c r="E31" t="s">
         <v>4485</v>
       </c>
-      <c r="F31" t="s">
-        <v>4486</v>
-      </c>
     </row>
     <row r="32" spans="1:6">
       <c r="A32" t="s">
@@ -56754,11 +56679,8 @@
       <c r="E32" t="s">
         <v>4485</v>
       </c>
-      <c r="F32" t="s">
-        <v>4486</v>
-      </c>
-    </row>
-    <row r="33" spans="1:6">
+    </row>
+    <row r="33" spans="1:5">
       <c r="A33" t="s">
         <v>54</v>
       </c>
@@ -56774,11 +56696,8 @@
       <c r="E33" t="s">
         <v>4485</v>
       </c>
-      <c r="F33" t="s">
-        <v>4486</v>
-      </c>
-    </row>
-    <row r="34" spans="1:6">
+    </row>
+    <row r="34" spans="1:5">
       <c r="A34" t="s">
         <v>55</v>
       </c>
@@ -56794,11 +56713,8 @@
       <c r="E34" t="s">
         <v>4485</v>
       </c>
-      <c r="F34" t="s">
-        <v>4486</v>
-      </c>
-    </row>
-    <row r="35" spans="1:6">
+    </row>
+    <row r="35" spans="1:5">
       <c r="A35" t="s">
         <v>56</v>
       </c>
@@ -56814,11 +56730,8 @@
       <c r="E35" t="s">
         <v>4485</v>
       </c>
-      <c r="F35" t="s">
-        <v>4486</v>
-      </c>
-    </row>
-    <row r="36" spans="1:6">
+    </row>
+    <row r="36" spans="1:5">
       <c r="A36" t="s">
         <v>57</v>
       </c>
@@ -56834,11 +56747,8 @@
       <c r="E36" t="s">
         <v>4485</v>
       </c>
-      <c r="F36" t="s">
-        <v>4486</v>
-      </c>
-    </row>
-    <row r="37" spans="1:6">
+    </row>
+    <row r="37" spans="1:5">
       <c r="A37" t="s">
         <v>58</v>
       </c>
@@ -56854,11 +56764,8 @@
       <c r="E37" t="s">
         <v>4485</v>
       </c>
-      <c r="F37" t="s">
-        <v>4486</v>
-      </c>
-    </row>
-    <row r="38" spans="1:6">
+    </row>
+    <row r="38" spans="1:5">
       <c r="A38" t="s">
         <v>59</v>
       </c>
@@ -56874,11 +56781,8 @@
       <c r="E38" t="s">
         <v>4485</v>
       </c>
-      <c r="F38" t="s">
-        <v>4486</v>
-      </c>
-    </row>
-    <row r="39" spans="1:6">
+    </row>
+    <row r="39" spans="1:5">
       <c r="A39" t="s">
         <v>60</v>
       </c>
@@ -56893,9 +56797,6 @@
       </c>
       <c r="E39" t="s">
         <v>4485</v>
-      </c>
-      <c r="F39" t="s">
-        <v>4486</v>
       </c>
     </row>
   </sheetData>
@@ -58173,7 +58074,7 @@
     </row>
     <row r="158" spans="1:2">
       <c r="A158" t="s">
-        <v>4492</v>
+        <v>4491</v>
       </c>
       <c r="B158" t="s">
         <v>212</v>
@@ -58181,7 +58082,7 @@
     </row>
     <row r="159" spans="1:2">
       <c r="A159" t="s">
-        <v>4493</v>
+        <v>4492</v>
       </c>
       <c r="B159" t="s">
         <v>212</v>
@@ -60694,7 +60595,7 @@
         <v>26</v>
       </c>
       <c r="B2" t="s">
-        <v>4494</v>
+        <v>4493</v>
       </c>
       <c r="C2" t="s">
         <v>4480</v>
@@ -60704,9 +60605,6 @@
       </c>
       <c r="E2" t="s">
         <v>4485</v>
-      </c>
-      <c r="F2" t="s">
-        <v>4486</v>
       </c>
     </row>
     <row r="3" spans="1:6">
@@ -60714,7 +60612,7 @@
         <v>23</v>
       </c>
       <c r="B3" t="s">
-        <v>4495</v>
+        <v>4494</v>
       </c>
       <c r="C3" t="s">
         <v>4480</v>
@@ -60724,9 +60622,6 @@
       </c>
       <c r="E3" t="s">
         <v>4485</v>
-      </c>
-      <c r="F3" t="s">
-        <v>4486</v>
       </c>
     </row>
   </sheetData>
@@ -60748,7 +60643,7 @@
   <sheetData>
     <row r="1" spans="1:2">
       <c r="A1" s="3" t="s">
-        <v>4496</v>
+        <v>4495</v>
       </c>
       <c r="B1" s="3" t="s">
         <v>23</v>
@@ -60772,7 +60667,7 @@
     </row>
     <row r="4" spans="1:2">
       <c r="A4" t="s">
-        <v>4497</v>
+        <v>4496</v>
       </c>
       <c r="B4" t="s">
         <v>61</v>
@@ -60780,7 +60675,7 @@
     </row>
     <row r="5" spans="1:2">
       <c r="A5" t="s">
-        <v>4498</v>
+        <v>4497</v>
       </c>
       <c r="B5" t="s">
         <v>61</v>
@@ -60812,7 +60707,7 @@
     </row>
     <row r="9" spans="1:2">
       <c r="A9" t="s">
-        <v>4499</v>
+        <v>4498</v>
       </c>
       <c r="B9" t="s">
         <v>62</v>
@@ -60836,7 +60731,7 @@
     </row>
     <row r="12" spans="1:2">
       <c r="A12" t="s">
-        <v>4500</v>
+        <v>4499</v>
       </c>
       <c r="B12" t="s">
         <v>63</v>
@@ -60844,7 +60739,7 @@
     </row>
     <row r="13" spans="1:2">
       <c r="A13" t="s">
-        <v>4501</v>
+        <v>4500</v>
       </c>
       <c r="B13" t="s">
         <v>63</v>
@@ -60852,7 +60747,7 @@
     </row>
     <row r="14" spans="1:2">
       <c r="A14" t="s">
-        <v>4502</v>
+        <v>4501</v>
       </c>
       <c r="B14" t="s">
         <v>63</v>
@@ -60860,7 +60755,7 @@
     </row>
     <row r="15" spans="1:2">
       <c r="A15" t="s">
-        <v>4503</v>
+        <v>4502</v>
       </c>
       <c r="B15" t="s">
         <v>63</v>
@@ -60876,7 +60771,7 @@
     </row>
     <row r="17" spans="1:2">
       <c r="A17" t="s">
-        <v>4504</v>
+        <v>4503</v>
       </c>
       <c r="B17" t="s">
         <v>63</v>
@@ -60916,7 +60811,7 @@
     </row>
     <row r="22" spans="1:2">
       <c r="A22" t="s">
-        <v>4505</v>
+        <v>4504</v>
       </c>
       <c r="B22" t="s">
         <v>65</v>
@@ -60924,7 +60819,7 @@
     </row>
     <row r="23" spans="1:2">
       <c r="A23" t="s">
-        <v>4506</v>
+        <v>4505</v>
       </c>
       <c r="B23" t="s">
         <v>65</v>
@@ -60948,7 +60843,7 @@
     </row>
     <row r="26" spans="1:2">
       <c r="A26" t="s">
-        <v>4507</v>
+        <v>4506</v>
       </c>
       <c r="B26" t="s">
         <v>66</v>
@@ -60956,7 +60851,7 @@
     </row>
     <row r="27" spans="1:2">
       <c r="A27" t="s">
-        <v>4508</v>
+        <v>4507</v>
       </c>
       <c r="B27" t="s">
         <v>66</v>
@@ -60964,7 +60859,7 @@
     </row>
     <row r="28" spans="1:2">
       <c r="A28" t="s">
-        <v>4509</v>
+        <v>4508</v>
       </c>
       <c r="B28" t="s">
         <v>66</v>
@@ -60972,7 +60867,7 @@
     </row>
     <row r="29" spans="1:2">
       <c r="A29" t="s">
-        <v>4510</v>
+        <v>4509</v>
       </c>
       <c r="B29" t="s">
         <v>66</v>
@@ -60980,7 +60875,7 @@
     </row>
     <row r="30" spans="1:2">
       <c r="A30" t="s">
-        <v>4511</v>
+        <v>4510</v>
       </c>
       <c r="B30" t="s">
         <v>66</v>
@@ -61036,7 +60931,7 @@
     </row>
     <row r="37" spans="1:2">
       <c r="A37" t="s">
-        <v>4512</v>
+        <v>4511</v>
       </c>
       <c r="B37" t="s">
         <v>69</v>
@@ -61044,7 +60939,7 @@
     </row>
     <row r="38" spans="1:2">
       <c r="A38" t="s">
-        <v>4513</v>
+        <v>4512</v>
       </c>
       <c r="B38" t="s">
         <v>69</v>
@@ -61068,7 +60963,7 @@
     </row>
     <row r="41" spans="1:2">
       <c r="A41" t="s">
-        <v>4514</v>
+        <v>4513</v>
       </c>
       <c r="B41" t="s">
         <v>70</v>
@@ -61100,7 +60995,7 @@
     </row>
     <row r="45" spans="1:2">
       <c r="A45" t="s">
-        <v>4515</v>
+        <v>4514</v>
       </c>
       <c r="B45" t="s">
         <v>71</v>
@@ -61228,7 +61123,7 @@
     </row>
     <row r="61" spans="1:2">
       <c r="A61" t="s">
-        <v>4516</v>
+        <v>4515</v>
       </c>
       <c r="B61" t="s">
         <v>78</v>
@@ -61236,7 +61131,7 @@
     </row>
     <row r="62" spans="1:2">
       <c r="A62" t="s">
-        <v>4517</v>
+        <v>4516</v>
       </c>
       <c r="B62" t="s">
         <v>78</v>
@@ -61260,7 +61155,7 @@
     </row>
     <row r="65" spans="1:2">
       <c r="A65" t="s">
-        <v>4518</v>
+        <v>4517</v>
       </c>
       <c r="B65" t="s">
         <v>79</v>
@@ -61300,7 +61195,7 @@
     </row>
     <row r="70" spans="1:2">
       <c r="A70" t="s">
-        <v>4519</v>
+        <v>4518</v>
       </c>
       <c r="B70" t="s">
         <v>81</v>
@@ -61308,7 +61203,7 @@
     </row>
     <row r="71" spans="1:2">
       <c r="A71" t="s">
-        <v>4520</v>
+        <v>4519</v>
       </c>
       <c r="B71" t="s">
         <v>81</v>
@@ -61316,7 +61211,7 @@
     </row>
     <row r="72" spans="1:2">
       <c r="A72" t="s">
-        <v>4521</v>
+        <v>4520</v>
       </c>
       <c r="B72" t="s">
         <v>81</v>
@@ -61340,7 +61235,7 @@
     </row>
     <row r="75" spans="1:2">
       <c r="A75" t="s">
-        <v>4522</v>
+        <v>4521</v>
       </c>
       <c r="B75" t="s">
         <v>82</v>
@@ -61348,7 +61243,7 @@
     </row>
     <row r="76" spans="1:2">
       <c r="A76" t="s">
-        <v>4523</v>
+        <v>4522</v>
       </c>
       <c r="B76" t="s">
         <v>82</v>
@@ -61356,7 +61251,7 @@
     </row>
     <row r="77" spans="1:2">
       <c r="A77" t="s">
-        <v>4524</v>
+        <v>4523</v>
       </c>
       <c r="B77" t="s">
         <v>82</v>
@@ -61364,7 +61259,7 @@
     </row>
     <row r="78" spans="1:2">
       <c r="A78" t="s">
-        <v>4525</v>
+        <v>4524</v>
       </c>
       <c r="B78" t="s">
         <v>82</v>
@@ -61388,7 +61283,7 @@
     </row>
     <row r="81" spans="1:2">
       <c r="A81" t="s">
-        <v>4526</v>
+        <v>4525</v>
       </c>
       <c r="B81" t="s">
         <v>83</v>
@@ -61404,7 +61299,7 @@
     </row>
     <row r="83" spans="1:2">
       <c r="A83" t="s">
-        <v>4527</v>
+        <v>4526</v>
       </c>
       <c r="B83" t="s">
         <v>83</v>
@@ -61428,7 +61323,7 @@
     </row>
     <row r="86" spans="1:2">
       <c r="A86" t="s">
-        <v>4528</v>
+        <v>4527</v>
       </c>
       <c r="B86" t="s">
         <v>84</v>
@@ -61436,7 +61331,7 @@
     </row>
     <row r="87" spans="1:2">
       <c r="A87" t="s">
-        <v>4529</v>
+        <v>4528</v>
       </c>
       <c r="B87" t="s">
         <v>84</v>
@@ -61444,7 +61339,7 @@
     </row>
     <row r="88" spans="1:2">
       <c r="A88" t="s">
-        <v>4530</v>
+        <v>4529</v>
       </c>
       <c r="B88" t="s">
         <v>84</v>
@@ -61452,7 +61347,7 @@
     </row>
     <row r="89" spans="1:2">
       <c r="A89" t="s">
-        <v>4531</v>
+        <v>4530</v>
       </c>
       <c r="B89" t="s">
         <v>84</v>
@@ -61484,7 +61379,7 @@
     </row>
     <row r="93" spans="1:2">
       <c r="A93" t="s">
-        <v>4532</v>
+        <v>4531</v>
       </c>
       <c r="B93" t="s">
         <v>85</v>
@@ -61492,7 +61387,7 @@
     </row>
     <row r="94" spans="1:2">
       <c r="A94" t="s">
-        <v>4533</v>
+        <v>4532</v>
       </c>
       <c r="B94" t="s">
         <v>85</v>
@@ -61524,7 +61419,7 @@
     </row>
     <row r="98" spans="1:2">
       <c r="A98" t="s">
-        <v>4534</v>
+        <v>4533</v>
       </c>
       <c r="B98" t="s">
         <v>86</v>
@@ -61532,7 +61427,7 @@
     </row>
     <row r="99" spans="1:2">
       <c r="A99" t="s">
-        <v>4535</v>
+        <v>4534</v>
       </c>
       <c r="B99" t="s">
         <v>86</v>
@@ -61564,7 +61459,7 @@
     </row>
     <row r="103" spans="1:2">
       <c r="A103" t="s">
-        <v>4536</v>
+        <v>4535</v>
       </c>
       <c r="B103" t="s">
         <v>87</v>
@@ -61572,7 +61467,7 @@
     </row>
     <row r="104" spans="1:2">
       <c r="A104" t="s">
-        <v>4537</v>
+        <v>4536</v>
       </c>
       <c r="B104" t="s">
         <v>87</v>
@@ -61596,7 +61491,7 @@
     </row>
     <row r="107" spans="1:2">
       <c r="A107" t="s">
-        <v>4538</v>
+        <v>4537</v>
       </c>
       <c r="B107" t="s">
         <v>88</v>
@@ -61612,7 +61507,7 @@
     </row>
     <row r="109" spans="1:2">
       <c r="A109" t="s">
-        <v>4539</v>
+        <v>4538</v>
       </c>
       <c r="B109" t="s">
         <v>88</v>
@@ -61620,7 +61515,7 @@
     </row>
     <row r="110" spans="1:2">
       <c r="A110" t="s">
-        <v>4540</v>
+        <v>4539</v>
       </c>
       <c r="B110" t="s">
         <v>88</v>
@@ -61628,7 +61523,7 @@
     </row>
     <row r="111" spans="1:2">
       <c r="A111" t="s">
-        <v>4541</v>
+        <v>4540</v>
       </c>
       <c r="B111" t="s">
         <v>88</v>
@@ -61652,7 +61547,7 @@
     </row>
     <row r="114" spans="1:2">
       <c r="A114" t="s">
-        <v>4542</v>
+        <v>4541</v>
       </c>
       <c r="B114" t="s">
         <v>89</v>
@@ -61660,7 +61555,7 @@
     </row>
     <row r="115" spans="1:2">
       <c r="A115" t="s">
-        <v>4543</v>
+        <v>4542</v>
       </c>
       <c r="B115" t="s">
         <v>89</v>
@@ -61692,7 +61587,7 @@
     </row>
     <row r="119" spans="1:2">
       <c r="A119" t="s">
-        <v>4544</v>
+        <v>4543</v>
       </c>
       <c r="B119" t="s">
         <v>90</v>
@@ -61700,7 +61595,7 @@
     </row>
     <row r="120" spans="1:2">
       <c r="A120" t="s">
-        <v>4545</v>
+        <v>4544</v>
       </c>
       <c r="B120" t="s">
         <v>90</v>
@@ -61724,7 +61619,7 @@
     </row>
     <row r="123" spans="1:2">
       <c r="A123" t="s">
-        <v>4546</v>
+        <v>4545</v>
       </c>
       <c r="B123" t="s">
         <v>91</v>
@@ -61732,7 +61627,7 @@
     </row>
     <row r="124" spans="1:2">
       <c r="A124" t="s">
-        <v>4547</v>
+        <v>4546</v>
       </c>
       <c r="B124" t="s">
         <v>91</v>
@@ -61772,7 +61667,7 @@
     </row>
     <row r="129" spans="1:2">
       <c r="A129" t="s">
-        <v>4548</v>
+        <v>4547</v>
       </c>
       <c r="B129" t="s">
         <v>93</v>
@@ -61788,7 +61683,7 @@
     </row>
     <row r="131" spans="1:2">
       <c r="A131" t="s">
-        <v>4549</v>
+        <v>4548</v>
       </c>
       <c r="B131" t="s">
         <v>93</v>
@@ -61828,7 +61723,7 @@
     </row>
     <row r="136" spans="1:2">
       <c r="A136" t="s">
-        <v>4550</v>
+        <v>4549</v>
       </c>
       <c r="B136" t="s">
         <v>95</v>
@@ -61836,7 +61731,7 @@
     </row>
     <row r="137" spans="1:2">
       <c r="A137" t="s">
-        <v>4551</v>
+        <v>4550</v>
       </c>
       <c r="B137" t="s">
         <v>95</v>
@@ -61844,7 +61739,7 @@
     </row>
     <row r="138" spans="1:2">
       <c r="A138" t="s">
-        <v>4552</v>
+        <v>4551</v>
       </c>
       <c r="B138" t="s">
         <v>95</v>
@@ -61852,7 +61747,7 @@
     </row>
     <row r="139" spans="1:2">
       <c r="A139" t="s">
-        <v>4553</v>
+        <v>4552</v>
       </c>
       <c r="B139" t="s">
         <v>95</v>
@@ -61860,7 +61755,7 @@
     </row>
     <row r="140" spans="1:2">
       <c r="A140" t="s">
-        <v>4554</v>
+        <v>4553</v>
       </c>
       <c r="B140" t="s">
         <v>95</v>
@@ -61892,7 +61787,7 @@
     </row>
     <row r="144" spans="1:2">
       <c r="A144" t="s">
-        <v>4555</v>
+        <v>4554</v>
       </c>
       <c r="B144" t="s">
         <v>96</v>
@@ -61900,7 +61795,7 @@
     </row>
     <row r="145" spans="1:2">
       <c r="A145" t="s">
-        <v>4556</v>
+        <v>4555</v>
       </c>
       <c r="B145" t="s">
         <v>96</v>
@@ -61932,7 +61827,7 @@
     </row>
     <row r="149" spans="1:2">
       <c r="A149" t="s">
-        <v>4557</v>
+        <v>4556</v>
       </c>
       <c r="B149" t="s">
         <v>97</v>
@@ -61940,7 +61835,7 @@
     </row>
     <row r="150" spans="1:2">
       <c r="A150" t="s">
-        <v>4558</v>
+        <v>4557</v>
       </c>
       <c r="B150" t="s">
         <v>97</v>
@@ -61996,7 +61891,7 @@
     </row>
     <row r="157" spans="1:2">
       <c r="A157" t="s">
-        <v>4559</v>
+        <v>4558</v>
       </c>
       <c r="B157" t="s">
         <v>100</v>
@@ -62004,7 +61899,7 @@
     </row>
     <row r="158" spans="1:2">
       <c r="A158" t="s">
-        <v>4560</v>
+        <v>4559</v>
       </c>
       <c r="B158" t="s">
         <v>100</v>
@@ -62028,7 +61923,7 @@
     </row>
     <row r="161" spans="1:2">
       <c r="A161" t="s">
-        <v>4561</v>
+        <v>4560</v>
       </c>
       <c r="B161" t="s">
         <v>101</v>
@@ -62044,7 +61939,7 @@
     </row>
     <row r="163" spans="1:2">
       <c r="A163" t="s">
-        <v>4562</v>
+        <v>4561</v>
       </c>
       <c r="B163" t="s">
         <v>101</v>
@@ -62076,7 +61971,7 @@
     </row>
     <row r="167" spans="1:2">
       <c r="A167" t="s">
-        <v>4563</v>
+        <v>4562</v>
       </c>
       <c r="B167" t="s">
         <v>102</v>
@@ -62084,7 +61979,7 @@
     </row>
     <row r="168" spans="1:2">
       <c r="A168" t="s">
-        <v>4564</v>
+        <v>4563</v>
       </c>
       <c r="B168" t="s">
         <v>102</v>
@@ -62108,7 +62003,7 @@
     </row>
     <row r="171" spans="1:2">
       <c r="A171" t="s">
-        <v>4565</v>
+        <v>4564</v>
       </c>
       <c r="B171" t="s">
         <v>103</v>
@@ -62140,7 +62035,7 @@
     </row>
     <row r="175" spans="1:2">
       <c r="A175" t="s">
-        <v>4566</v>
+        <v>4565</v>
       </c>
       <c r="B175" t="s">
         <v>104</v>
@@ -62148,7 +62043,7 @@
     </row>
     <row r="176" spans="1:2">
       <c r="A176" t="s">
-        <v>4567</v>
+        <v>4566</v>
       </c>
       <c r="B176" t="s">
         <v>104</v>
@@ -62156,7 +62051,7 @@
     </row>
     <row r="177" spans="1:2">
       <c r="A177" t="s">
-        <v>4568</v>
+        <v>4567</v>
       </c>
       <c r="B177" t="s">
         <v>104</v>
@@ -62204,7 +62099,7 @@
     </row>
     <row r="183" spans="1:2">
       <c r="A183" t="s">
-        <v>4569</v>
+        <v>4568</v>
       </c>
       <c r="B183" t="s">
         <v>106</v>
@@ -62212,7 +62107,7 @@
     </row>
     <row r="184" spans="1:2">
       <c r="A184" t="s">
-        <v>4570</v>
+        <v>4569</v>
       </c>
       <c r="B184" t="s">
         <v>106</v>
@@ -62244,7 +62139,7 @@
     </row>
     <row r="188" spans="1:2">
       <c r="A188" t="s">
-        <v>4571</v>
+        <v>4570</v>
       </c>
       <c r="B188" t="s">
         <v>107</v>
@@ -62252,7 +62147,7 @@
     </row>
     <row r="189" spans="1:2">
       <c r="A189" t="s">
-        <v>4572</v>
+        <v>4571</v>
       </c>
       <c r="B189" t="s">
         <v>107</v>
@@ -62308,7 +62203,7 @@
     </row>
     <row r="196" spans="1:2">
       <c r="A196" t="s">
-        <v>4573</v>
+        <v>4572</v>
       </c>
       <c r="B196" t="s">
         <v>110</v>
@@ -62340,7 +62235,7 @@
     </row>
     <row r="200" spans="1:2">
       <c r="A200" t="s">
-        <v>4574</v>
+        <v>4573</v>
       </c>
       <c r="B200" t="s">
         <v>111</v>
@@ -62348,7 +62243,7 @@
     </row>
     <row r="201" spans="1:2">
       <c r="A201" t="s">
-        <v>4575</v>
+        <v>4574</v>
       </c>
       <c r="B201" t="s">
         <v>111</v>
@@ -62372,7 +62267,7 @@
     </row>
     <row r="204" spans="1:2">
       <c r="A204" t="s">
-        <v>4576</v>
+        <v>4575</v>
       </c>
       <c r="B204" t="s">
         <v>112</v>
@@ -62380,7 +62275,7 @@
     </row>
     <row r="205" spans="1:2">
       <c r="A205" t="s">
-        <v>4577</v>
+        <v>4576</v>
       </c>
       <c r="B205" t="s">
         <v>112</v>
@@ -62396,7 +62291,7 @@
     </row>
     <row r="207" spans="1:2">
       <c r="A207" t="s">
-        <v>4578</v>
+        <v>4577</v>
       </c>
       <c r="B207" t="s">
         <v>112</v>
@@ -62404,7 +62299,7 @@
     </row>
     <row r="208" spans="1:2">
       <c r="A208" t="s">
-        <v>4579</v>
+        <v>4578</v>
       </c>
       <c r="B208" t="s">
         <v>112</v>
@@ -62412,7 +62307,7 @@
     </row>
     <row r="209" spans="1:2">
       <c r="A209" t="s">
-        <v>4580</v>
+        <v>4579</v>
       </c>
       <c r="B209" t="s">
         <v>112</v>
@@ -62420,7 +62315,7 @@
     </row>
     <row r="210" spans="1:2">
       <c r="A210" t="s">
-        <v>4581</v>
+        <v>4580</v>
       </c>
       <c r="B210" t="s">
         <v>112</v>
@@ -62492,7 +62387,7 @@
     </row>
     <row r="219" spans="1:2">
       <c r="A219" t="s">
-        <v>4582</v>
+        <v>4581</v>
       </c>
       <c r="B219" t="s">
         <v>115</v>
@@ -62500,7 +62395,7 @@
     </row>
     <row r="220" spans="1:2">
       <c r="A220" t="s">
-        <v>4583</v>
+        <v>4582</v>
       </c>
       <c r="B220" t="s">
         <v>115</v>
@@ -62548,7 +62443,7 @@
     </row>
     <row r="226" spans="1:2">
       <c r="A226" t="s">
-        <v>4584</v>
+        <v>4583</v>
       </c>
       <c r="B226" t="s">
         <v>117</v>
@@ -62556,7 +62451,7 @@
     </row>
     <row r="227" spans="1:2">
       <c r="A227" t="s">
-        <v>4585</v>
+        <v>4584</v>
       </c>
       <c r="B227" t="s">
         <v>117</v>
@@ -62644,7 +62539,7 @@
     </row>
     <row r="238" spans="1:2">
       <c r="A238" t="s">
-        <v>4586</v>
+        <v>4585</v>
       </c>
       <c r="B238" t="s">
         <v>122</v>
@@ -62652,7 +62547,7 @@
     </row>
     <row r="239" spans="1:2">
       <c r="A239" t="s">
-        <v>4587</v>
+        <v>4586</v>
       </c>
       <c r="B239" t="s">
         <v>122</v>
@@ -62668,7 +62563,7 @@
     </row>
     <row r="241" spans="1:2">
       <c r="A241" t="s">
-        <v>4588</v>
+        <v>4587</v>
       </c>
       <c r="B241" t="s">
         <v>122</v>
@@ -62676,7 +62571,7 @@
     </row>
     <row r="242" spans="1:2">
       <c r="A242" t="s">
-        <v>4589</v>
+        <v>4588</v>
       </c>
       <c r="B242" t="s">
         <v>122</v>
@@ -62700,7 +62595,7 @@
     </row>
     <row r="245" spans="1:2">
       <c r="A245" t="s">
-        <v>4590</v>
+        <v>4589</v>
       </c>
       <c r="B245" t="s">
         <v>123</v>
@@ -62708,7 +62603,7 @@
     </row>
     <row r="246" spans="1:2">
       <c r="A246" t="s">
-        <v>4591</v>
+        <v>4590</v>
       </c>
       <c r="B246" t="s">
         <v>123</v>
@@ -62716,7 +62611,7 @@
     </row>
     <row r="247" spans="1:2">
       <c r="A247" t="s">
-        <v>4592</v>
+        <v>4591</v>
       </c>
       <c r="B247" t="s">
         <v>123</v>
@@ -62740,7 +62635,7 @@
     </row>
     <row r="250" spans="1:2">
       <c r="A250" t="s">
-        <v>4593</v>
+        <v>4592</v>
       </c>
       <c r="B250" t="s">
         <v>124</v>
@@ -62772,7 +62667,7 @@
     </row>
     <row r="254" spans="1:2">
       <c r="A254" t="s">
-        <v>4594</v>
+        <v>4593</v>
       </c>
       <c r="B254" t="s">
         <v>125</v>
@@ -62828,7 +62723,7 @@
     </row>
     <row r="261" spans="1:2">
       <c r="A261" t="s">
-        <v>4595</v>
+        <v>4594</v>
       </c>
       <c r="B261" t="s">
         <v>128</v>
@@ -62860,7 +62755,7 @@
     </row>
     <row r="265" spans="1:2">
       <c r="A265" t="s">
-        <v>4596</v>
+        <v>4595</v>
       </c>
       <c r="B265" t="s">
         <v>129</v>
@@ -62868,7 +62763,7 @@
     </row>
     <row r="266" spans="1:2">
       <c r="A266" t="s">
-        <v>4597</v>
+        <v>4596</v>
       </c>
       <c r="B266" t="s">
         <v>129</v>
@@ -62900,7 +62795,7 @@
     </row>
     <row r="270" spans="1:2">
       <c r="A270" t="s">
-        <v>4598</v>
+        <v>4597</v>
       </c>
       <c r="B270" t="s">
         <v>130</v>
@@ -62908,7 +62803,7 @@
     </row>
     <row r="271" spans="1:2">
       <c r="A271" t="s">
-        <v>4599</v>
+        <v>4598</v>
       </c>
       <c r="B271" t="s">
         <v>130</v>
@@ -63004,7 +62899,7 @@
     </row>
     <row r="283" spans="1:2">
       <c r="A283" t="s">
-        <v>4600</v>
+        <v>4599</v>
       </c>
       <c r="B283" t="s">
         <v>135</v>
@@ -63012,7 +62907,7 @@
     </row>
     <row r="284" spans="1:2">
       <c r="A284" t="s">
-        <v>4601</v>
+        <v>4600</v>
       </c>
       <c r="B284" t="s">
         <v>135</v>
@@ -63036,7 +62931,7 @@
     </row>
     <row r="287" spans="1:2">
       <c r="A287" t="s">
-        <v>4602</v>
+        <v>4601</v>
       </c>
       <c r="B287" t="s">
         <v>136</v>
@@ -63068,7 +62963,7 @@
     </row>
     <row r="291" spans="1:2">
       <c r="A291" t="s">
-        <v>4603</v>
+        <v>4602</v>
       </c>
       <c r="B291" t="s">
         <v>137</v>
@@ -63076,7 +62971,7 @@
     </row>
     <row r="292" spans="1:2">
       <c r="A292" t="s">
-        <v>4604</v>
+        <v>4603</v>
       </c>
       <c r="B292" t="s">
         <v>137</v>
@@ -63100,7 +62995,7 @@
     </row>
     <row r="295" spans="1:2">
       <c r="A295" t="s">
-        <v>4605</v>
+        <v>4604</v>
       </c>
       <c r="B295" t="s">
         <v>138</v>
@@ -63116,7 +63011,7 @@
     </row>
     <row r="297" spans="1:2">
       <c r="A297" t="s">
-        <v>4606</v>
+        <v>4605</v>
       </c>
       <c r="B297" t="s">
         <v>138</v>
@@ -63148,7 +63043,7 @@
     </row>
     <row r="301" spans="1:2">
       <c r="A301" t="s">
-        <v>4607</v>
+        <v>4606</v>
       </c>
       <c r="B301" t="s">
         <v>139</v>
@@ -63156,7 +63051,7 @@
     </row>
     <row r="302" spans="1:2">
       <c r="A302" t="s">
-        <v>4608</v>
+        <v>4607</v>
       </c>
       <c r="B302" t="s">
         <v>139</v>
@@ -63188,7 +63083,7 @@
     </row>
     <row r="306" spans="1:2">
       <c r="A306" t="s">
-        <v>4609</v>
+        <v>4608</v>
       </c>
       <c r="B306" t="s">
         <v>140</v>
@@ -63196,7 +63091,7 @@
     </row>
     <row r="307" spans="1:2">
       <c r="A307" t="s">
-        <v>4610</v>
+        <v>4609</v>
       </c>
       <c r="B307" t="s">
         <v>140</v>
@@ -63220,7 +63115,7 @@
     </row>
     <row r="310" spans="1:2">
       <c r="A310" t="s">
-        <v>4611</v>
+        <v>4610</v>
       </c>
       <c r="B310" t="s">
         <v>141</v>
@@ -63236,7 +63131,7 @@
     </row>
     <row r="312" spans="1:2">
       <c r="A312" t="s">
-        <v>4612</v>
+        <v>4611</v>
       </c>
       <c r="B312" t="s">
         <v>141</v>
@@ -63244,7 +63139,7 @@
     </row>
     <row r="313" spans="1:2">
       <c r="A313" t="s">
-        <v>4613</v>
+        <v>4612</v>
       </c>
       <c r="B313" t="s">
         <v>141</v>
@@ -63284,7 +63179,7 @@
     </row>
     <row r="318" spans="1:2">
       <c r="A318" t="s">
-        <v>4614</v>
+        <v>4613</v>
       </c>
       <c r="B318" t="s">
         <v>143</v>
@@ -63300,7 +63195,7 @@
     </row>
     <row r="320" spans="1:2">
       <c r="A320" t="s">
-        <v>4615</v>
+        <v>4614</v>
       </c>
       <c r="B320" t="s">
         <v>143</v>
@@ -63380,7 +63275,7 @@
     </row>
     <row r="330" spans="1:2">
       <c r="A330" t="s">
-        <v>4616</v>
+        <v>4615</v>
       </c>
       <c r="B330" t="s">
         <v>147</v>
@@ -63388,7 +63283,7 @@
     </row>
     <row r="331" spans="1:2">
       <c r="A331" t="s">
-        <v>4617</v>
+        <v>4616</v>
       </c>
       <c r="B331" t="s">
         <v>147</v>
@@ -63444,7 +63339,7 @@
     </row>
     <row r="338" spans="1:2">
       <c r="A338" t="s">
-        <v>4618</v>
+        <v>4617</v>
       </c>
       <c r="B338" t="s">
         <v>150</v>
@@ -63452,7 +63347,7 @@
     </row>
     <row r="339" spans="1:2">
       <c r="A339" t="s">
-        <v>4619</v>
+        <v>4618</v>
       </c>
       <c r="B339" t="s">
         <v>150</v>
@@ -63460,7 +63355,7 @@
     </row>
     <row r="340" spans="1:2">
       <c r="A340" t="s">
-        <v>4620</v>
+        <v>4619</v>
       </c>
       <c r="B340" t="s">
         <v>150</v>
@@ -63476,7 +63371,7 @@
     </row>
     <row r="342" spans="1:2">
       <c r="A342" t="s">
-        <v>4621</v>
+        <v>4620</v>
       </c>
       <c r="B342" t="s">
         <v>150</v>
@@ -63484,7 +63379,7 @@
     </row>
     <row r="343" spans="1:2">
       <c r="A343" t="s">
-        <v>4622</v>
+        <v>4621</v>
       </c>
       <c r="B343" t="s">
         <v>150</v>
@@ -63516,7 +63411,7 @@
     </row>
     <row r="347" spans="1:2">
       <c r="A347" t="s">
-        <v>4623</v>
+        <v>4622</v>
       </c>
       <c r="B347" t="s">
         <v>151</v>
@@ -63524,7 +63419,7 @@
     </row>
     <row r="348" spans="1:2">
       <c r="A348" t="s">
-        <v>4624</v>
+        <v>4623</v>
       </c>
       <c r="B348" t="s">
         <v>151</v>
@@ -63556,7 +63451,7 @@
     </row>
     <row r="352" spans="1:2">
       <c r="A352" t="s">
-        <v>4625</v>
+        <v>4624</v>
       </c>
       <c r="B352" t="s">
         <v>152</v>
@@ -63564,7 +63459,7 @@
     </row>
     <row r="353" spans="1:2">
       <c r="A353" t="s">
-        <v>4626</v>
+        <v>4625</v>
       </c>
       <c r="B353" t="s">
         <v>152</v>
@@ -63596,7 +63491,7 @@
     </row>
     <row r="357" spans="1:2">
       <c r="A357" t="s">
-        <v>4627</v>
+        <v>4626</v>
       </c>
       <c r="B357" t="s">
         <v>153</v>
@@ -63636,7 +63531,7 @@
     </row>
     <row r="362" spans="1:2">
       <c r="A362" t="s">
-        <v>4628</v>
+        <v>4627</v>
       </c>
       <c r="B362" t="s">
         <v>155</v>
@@ -63652,7 +63547,7 @@
     </row>
     <row r="364" spans="1:2">
       <c r="A364" t="s">
-        <v>4629</v>
+        <v>4628</v>
       </c>
       <c r="B364" t="s">
         <v>155</v>
@@ -63716,7 +63611,7 @@
     </row>
     <row r="372" spans="1:2">
       <c r="A372" t="s">
-        <v>4630</v>
+        <v>4629</v>
       </c>
       <c r="B372" t="s">
         <v>158</v>
@@ -63724,7 +63619,7 @@
     </row>
     <row r="373" spans="1:2">
       <c r="A373" t="s">
-        <v>4631</v>
+        <v>4630</v>
       </c>
       <c r="B373" t="s">
         <v>158</v>
@@ -63764,7 +63659,7 @@
     </row>
     <row r="378" spans="1:2">
       <c r="A378" t="s">
-        <v>4632</v>
+        <v>4631</v>
       </c>
       <c r="B378" t="s">
         <v>160</v>
@@ -63780,7 +63675,7 @@
     </row>
     <row r="380" spans="1:2">
       <c r="A380" t="s">
-        <v>4633</v>
+        <v>4632</v>
       </c>
       <c r="B380" t="s">
         <v>160</v>
@@ -63788,7 +63683,7 @@
     </row>
     <row r="381" spans="1:2">
       <c r="A381" t="s">
-        <v>4634</v>
+        <v>4633</v>
       </c>
       <c r="B381" t="s">
         <v>160</v>
@@ -63812,7 +63707,7 @@
     </row>
     <row r="384" spans="1:2">
       <c r="A384" t="s">
-        <v>4635</v>
+        <v>4634</v>
       </c>
       <c r="B384" t="s">
         <v>161</v>
@@ -63820,7 +63715,7 @@
     </row>
     <row r="385" spans="1:2">
       <c r="A385" t="s">
-        <v>4636</v>
+        <v>4635</v>
       </c>
       <c r="B385" t="s">
         <v>161</v>
@@ -63828,7 +63723,7 @@
     </row>
     <row r="386" spans="1:2">
       <c r="A386" t="s">
-        <v>4637</v>
+        <v>4636</v>
       </c>
       <c r="B386" t="s">
         <v>161</v>
@@ -63844,7 +63739,7 @@
     </row>
     <row r="388" spans="1:2">
       <c r="A388" t="s">
-        <v>4638</v>
+        <v>4637</v>
       </c>
       <c r="B388" t="s">
         <v>161</v>
@@ -63852,7 +63747,7 @@
     </row>
     <row r="389" spans="1:2">
       <c r="A389" t="s">
-        <v>4639</v>
+        <v>4638</v>
       </c>
       <c r="B389" t="s">
         <v>161</v>
@@ -63884,7 +63779,7 @@
     </row>
     <row r="393" spans="1:2">
       <c r="A393" t="s">
-        <v>4640</v>
+        <v>4639</v>
       </c>
       <c r="B393" t="s">
         <v>162</v>
@@ -63892,7 +63787,7 @@
     </row>
     <row r="394" spans="1:2">
       <c r="A394" t="s">
-        <v>4641</v>
+        <v>4640</v>
       </c>
       <c r="B394" t="s">
         <v>162</v>
@@ -63916,7 +63811,7 @@
     </row>
     <row r="397" spans="1:2">
       <c r="A397" t="s">
-        <v>4642</v>
+        <v>4641</v>
       </c>
       <c r="B397" t="s">
         <v>163</v>
@@ -63924,7 +63819,7 @@
     </row>
     <row r="398" spans="1:2">
       <c r="A398" t="s">
-        <v>4643</v>
+        <v>4642</v>
       </c>
       <c r="B398" t="s">
         <v>163</v>
@@ -63932,7 +63827,7 @@
     </row>
     <row r="399" spans="1:2">
       <c r="A399" t="s">
-        <v>4644</v>
+        <v>4643</v>
       </c>
       <c r="B399" t="s">
         <v>163</v>
@@ -63964,7 +63859,7 @@
     </row>
     <row r="403" spans="1:2">
       <c r="A403" t="s">
-        <v>4645</v>
+        <v>4644</v>
       </c>
       <c r="B403" t="s">
         <v>164</v>
@@ -63972,7 +63867,7 @@
     </row>
     <row r="404" spans="1:2">
       <c r="A404" t="s">
-        <v>4646</v>
+        <v>4645</v>
       </c>
       <c r="B404" t="s">
         <v>164</v>
@@ -63996,7 +63891,7 @@
     </row>
     <row r="407" spans="1:2">
       <c r="A407" t="s">
-        <v>4647</v>
+        <v>4646</v>
       </c>
       <c r="B407" t="s">
         <v>165</v>
@@ -64012,7 +63907,7 @@
     </row>
     <row r="409" spans="1:2">
       <c r="A409" t="s">
-        <v>4648</v>
+        <v>4647</v>
       </c>
       <c r="B409" t="s">
         <v>165</v>
@@ -64020,7 +63915,7 @@
     </row>
     <row r="410" spans="1:2">
       <c r="A410" t="s">
-        <v>4649</v>
+        <v>4648</v>
       </c>
       <c r="B410" t="s">
         <v>165</v>
@@ -64044,7 +63939,7 @@
     </row>
     <row r="413" spans="1:2">
       <c r="A413" t="s">
-        <v>4650</v>
+        <v>4649</v>
       </c>
       <c r="B413" t="s">
         <v>166</v>
@@ -64052,7 +63947,7 @@
     </row>
     <row r="414" spans="1:2">
       <c r="A414" t="s">
-        <v>4651</v>
+        <v>4650</v>
       </c>
       <c r="B414" t="s">
         <v>166</v>
@@ -64092,7 +63987,7 @@
     </row>
     <row r="419" spans="1:2">
       <c r="A419" t="s">
-        <v>4652</v>
+        <v>4651</v>
       </c>
       <c r="B419" t="s">
         <v>168</v>
@@ -64100,7 +63995,7 @@
     </row>
     <row r="420" spans="1:2">
       <c r="A420" t="s">
-        <v>4653</v>
+        <v>4652</v>
       </c>
       <c r="B420" t="s">
         <v>168</v>
@@ -64124,7 +64019,7 @@
     </row>
     <row r="423" spans="1:2">
       <c r="A423" t="s">
-        <v>4654</v>
+        <v>4653</v>
       </c>
       <c r="B423" t="s">
         <v>169</v>
@@ -64164,7 +64059,7 @@
     </row>
     <row r="428" spans="1:2">
       <c r="A428" t="s">
-        <v>4655</v>
+        <v>4654</v>
       </c>
       <c r="B428" t="s">
         <v>170</v>
@@ -64172,7 +64067,7 @@
     </row>
     <row r="429" spans="1:2">
       <c r="A429" t="s">
-        <v>4656</v>
+        <v>4655</v>
       </c>
       <c r="B429" t="s">
         <v>170</v>
@@ -64196,7 +64091,7 @@
     </row>
     <row r="432" spans="1:2">
       <c r="A432" t="s">
-        <v>4657</v>
+        <v>4656</v>
       </c>
       <c r="B432" t="s">
         <v>171</v>
@@ -64204,7 +64099,7 @@
     </row>
     <row r="433" spans="1:2">
       <c r="A433" t="s">
-        <v>4658</v>
+        <v>4657</v>
       </c>
       <c r="B433" t="s">
         <v>171</v>
@@ -64212,7 +64107,7 @@
     </row>
     <row r="434" spans="1:2">
       <c r="A434" t="s">
-        <v>4659</v>
+        <v>4658</v>
       </c>
       <c r="B434" t="s">
         <v>171</v>
@@ -64220,7 +64115,7 @@
     </row>
     <row r="435" spans="1:2">
       <c r="A435" t="s">
-        <v>4660</v>
+        <v>4659</v>
       </c>
       <c r="B435" t="s">
         <v>171</v>
@@ -64228,7 +64123,7 @@
     </row>
     <row r="436" spans="1:2">
       <c r="A436" t="s">
-        <v>4661</v>
+        <v>4660</v>
       </c>
       <c r="B436" t="s">
         <v>171</v>
@@ -64260,7 +64155,7 @@
     </row>
     <row r="440" spans="1:2">
       <c r="A440" t="s">
-        <v>4662</v>
+        <v>4661</v>
       </c>
       <c r="B440" t="s">
         <v>172</v>
@@ -64268,7 +64163,7 @@
     </row>
     <row r="441" spans="1:2">
       <c r="A441" t="s">
-        <v>4663</v>
+        <v>4662</v>
       </c>
       <c r="B441" t="s">
         <v>172</v>
@@ -64324,7 +64219,7 @@
     </row>
     <row r="448" spans="1:2">
       <c r="A448" t="s">
-        <v>4664</v>
+        <v>4663</v>
       </c>
       <c r="B448" t="s">
         <v>175</v>
@@ -64332,7 +64227,7 @@
     </row>
     <row r="449" spans="1:2">
       <c r="A449" t="s">
-        <v>4665</v>
+        <v>4664</v>
       </c>
       <c r="B449" t="s">
         <v>175</v>
@@ -64372,7 +64267,7 @@
     </row>
     <row r="454" spans="1:2">
       <c r="A454" t="s">
-        <v>4666</v>
+        <v>4665</v>
       </c>
       <c r="B454" t="s">
         <v>177</v>
@@ -64380,7 +64275,7 @@
     </row>
     <row r="455" spans="1:2">
       <c r="A455" t="s">
-        <v>4667</v>
+        <v>4666</v>
       </c>
       <c r="B455" t="s">
         <v>177</v>
@@ -64388,7 +64283,7 @@
     </row>
     <row r="456" spans="1:2">
       <c r="A456" t="s">
-        <v>4668</v>
+        <v>4667</v>
       </c>
       <c r="B456" t="s">
         <v>177</v>
@@ -64412,7 +64307,7 @@
     </row>
     <row r="459" spans="1:2">
       <c r="A459" t="s">
-        <v>4669</v>
+        <v>4668</v>
       </c>
       <c r="B459" t="s">
         <v>178</v>
@@ -64420,7 +64315,7 @@
     </row>
     <row r="460" spans="1:2">
       <c r="A460" t="s">
-        <v>4670</v>
+        <v>4669</v>
       </c>
       <c r="B460" t="s">
         <v>178</v>
@@ -64436,7 +64331,7 @@
     </row>
     <row r="462" spans="1:2">
       <c r="A462" t="s">
-        <v>4671</v>
+        <v>4670</v>
       </c>
       <c r="B462" t="s">
         <v>178</v>
@@ -64444,7 +64339,7 @@
     </row>
     <row r="463" spans="1:2">
       <c r="A463" t="s">
-        <v>4672</v>
+        <v>4671</v>
       </c>
       <c r="B463" t="s">
         <v>178</v>
@@ -64484,7 +64379,7 @@
     </row>
     <row r="468" spans="1:2">
       <c r="A468" t="s">
-        <v>4673</v>
+        <v>4672</v>
       </c>
       <c r="B468" t="s">
         <v>180</v>
@@ -64492,7 +64387,7 @@
     </row>
     <row r="469" spans="1:2">
       <c r="A469" t="s">
-        <v>4674</v>
+        <v>4673</v>
       </c>
       <c r="B469" t="s">
         <v>180</v>
@@ -64500,7 +64395,7 @@
     </row>
     <row r="470" spans="1:2">
       <c r="A470" t="s">
-        <v>4675</v>
+        <v>4674</v>
       </c>
       <c r="B470" t="s">
         <v>180</v>
@@ -64524,7 +64419,7 @@
     </row>
     <row r="473" spans="1:2">
       <c r="A473" t="s">
-        <v>4676</v>
+        <v>4675</v>
       </c>
       <c r="B473" t="s">
         <v>181</v>
@@ -64532,7 +64427,7 @@
     </row>
     <row r="474" spans="1:2">
       <c r="A474" t="s">
-        <v>4677</v>
+        <v>4676</v>
       </c>
       <c r="B474" t="s">
         <v>181</v>
@@ -64540,7 +64435,7 @@
     </row>
     <row r="475" spans="1:2">
       <c r="A475" t="s">
-        <v>4678</v>
+        <v>4677</v>
       </c>
       <c r="B475" t="s">
         <v>181</v>
@@ -64548,7 +64443,7 @@
     </row>
     <row r="476" spans="1:2">
       <c r="A476" t="s">
-        <v>4679</v>
+        <v>4678</v>
       </c>
       <c r="B476" t="s">
         <v>181</v>
@@ -64556,7 +64451,7 @@
     </row>
     <row r="477" spans="1:2">
       <c r="A477" t="s">
-        <v>4680</v>
+        <v>4679</v>
       </c>
       <c r="B477" t="s">
         <v>181</v>
@@ -64564,7 +64459,7 @@
     </row>
     <row r="478" spans="1:2">
       <c r="A478" t="s">
-        <v>4681</v>
+        <v>4680</v>
       </c>
       <c r="B478" t="s">
         <v>181</v>
@@ -64588,7 +64483,7 @@
     </row>
     <row r="481" spans="1:2">
       <c r="A481" t="s">
-        <v>4682</v>
+        <v>4681</v>
       </c>
       <c r="B481" t="s">
         <v>182</v>
@@ -64596,7 +64491,7 @@
     </row>
     <row r="482" spans="1:2">
       <c r="A482" t="s">
-        <v>4683</v>
+        <v>4682</v>
       </c>
       <c r="B482" t="s">
         <v>182</v>
@@ -64604,7 +64499,7 @@
     </row>
     <row r="483" spans="1:2">
       <c r="A483" t="s">
-        <v>4684</v>
+        <v>4683</v>
       </c>
       <c r="B483" t="s">
         <v>182</v>
@@ -64628,7 +64523,7 @@
     </row>
     <row r="486" spans="1:2">
       <c r="A486" t="s">
-        <v>4685</v>
+        <v>4684</v>
       </c>
       <c r="B486" t="s">
         <v>183</v>
@@ -64636,7 +64531,7 @@
     </row>
     <row r="487" spans="1:2">
       <c r="A487" t="s">
-        <v>4686</v>
+        <v>4685</v>
       </c>
       <c r="B487" t="s">
         <v>183</v>
@@ -64644,7 +64539,7 @@
     </row>
     <row r="488" spans="1:2">
       <c r="A488" t="s">
-        <v>4687</v>
+        <v>4686</v>
       </c>
       <c r="B488" t="s">
         <v>183</v>
@@ -64668,7 +64563,7 @@
     </row>
     <row r="491" spans="1:2">
       <c r="A491" t="s">
-        <v>4688</v>
+        <v>4687</v>
       </c>
       <c r="B491" t="s">
         <v>184</v>
@@ -64676,7 +64571,7 @@
     </row>
     <row r="492" spans="1:2">
       <c r="A492" t="s">
-        <v>4689</v>
+        <v>4688</v>
       </c>
       <c r="B492" t="s">
         <v>184</v>
@@ -64684,7 +64579,7 @@
     </row>
     <row r="493" spans="1:2">
       <c r="A493" t="s">
-        <v>4690</v>
+        <v>4689</v>
       </c>
       <c r="B493" t="s">
         <v>184</v>
@@ -64724,7 +64619,7 @@
     </row>
     <row r="498" spans="1:2">
       <c r="A498" t="s">
-        <v>4691</v>
+        <v>4690</v>
       </c>
       <c r="B498" t="s">
         <v>186</v>
@@ -64732,7 +64627,7 @@
     </row>
     <row r="499" spans="1:2">
       <c r="A499" t="s">
-        <v>4692</v>
+        <v>4691</v>
       </c>
       <c r="B499" t="s">
         <v>186</v>
@@ -64756,7 +64651,7 @@
     </row>
     <row r="502" spans="1:2">
       <c r="A502" t="s">
-        <v>4693</v>
+        <v>4692</v>
       </c>
       <c r="B502" t="s">
         <v>187</v>
@@ -64764,7 +64659,7 @@
     </row>
     <row r="503" spans="1:2">
       <c r="A503" t="s">
-        <v>4694</v>
+        <v>4693</v>
       </c>
       <c r="B503" t="s">
         <v>187</v>
@@ -64772,7 +64667,7 @@
     </row>
     <row r="504" spans="1:2">
       <c r="A504" t="s">
-        <v>4695</v>
+        <v>4694</v>
       </c>
       <c r="B504" t="s">
         <v>187</v>
@@ -64780,7 +64675,7 @@
     </row>
     <row r="505" spans="1:2">
       <c r="A505" t="s">
-        <v>4696</v>
+        <v>4695</v>
       </c>
       <c r="B505" t="s">
         <v>187</v>
@@ -64788,7 +64683,7 @@
     </row>
     <row r="506" spans="1:2">
       <c r="A506" t="s">
-        <v>4697</v>
+        <v>4696</v>
       </c>
       <c r="B506" t="s">
         <v>187</v>
@@ -64796,7 +64691,7 @@
     </row>
     <row r="507" spans="1:2">
       <c r="A507" t="s">
-        <v>4698</v>
+        <v>4697</v>
       </c>
       <c r="B507" t="s">
         <v>187</v>
@@ -64804,7 +64699,7 @@
     </row>
     <row r="508" spans="1:2">
       <c r="A508" t="s">
-        <v>4699</v>
+        <v>4698</v>
       </c>
       <c r="B508" t="s">
         <v>187</v>
@@ -64812,7 +64707,7 @@
     </row>
     <row r="509" spans="1:2">
       <c r="A509" t="s">
-        <v>4700</v>
+        <v>4699</v>
       </c>
       <c r="B509" t="s">
         <v>187</v>
@@ -64844,7 +64739,7 @@
     </row>
     <row r="513" spans="1:2">
       <c r="A513" t="s">
-        <v>4701</v>
+        <v>4700</v>
       </c>
       <c r="B513" t="s">
         <v>188</v>
@@ -64852,7 +64747,7 @@
     </row>
     <row r="514" spans="1:2">
       <c r="A514" t="s">
-        <v>4702</v>
+        <v>4701</v>
       </c>
       <c r="B514" t="s">
         <v>188</v>
@@ -64908,7 +64803,7 @@
     </row>
     <row r="521" spans="1:2">
       <c r="A521" t="s">
-        <v>4703</v>
+        <v>4702</v>
       </c>
       <c r="B521" t="s">
         <v>191</v>
@@ -64948,7 +64843,7 @@
     </row>
     <row r="526" spans="1:2">
       <c r="A526" t="s">
-        <v>4704</v>
+        <v>4703</v>
       </c>
       <c r="B526" t="s">
         <v>193</v>
@@ -64956,7 +64851,7 @@
     </row>
     <row r="527" spans="1:2">
       <c r="A527" t="s">
-        <v>4705</v>
+        <v>4704</v>
       </c>
       <c r="B527" t="s">
         <v>193</v>
@@ -64980,7 +64875,7 @@
     </row>
     <row r="530" spans="1:2">
       <c r="A530" t="s">
-        <v>4706</v>
+        <v>4705</v>
       </c>
       <c r="B530" t="s">
         <v>194</v>
@@ -64988,7 +64883,7 @@
     </row>
     <row r="531" spans="1:2">
       <c r="A531" t="s">
-        <v>4707</v>
+        <v>4706</v>
       </c>
       <c r="B531" t="s">
         <v>194</v>
@@ -64996,7 +64891,7 @@
     </row>
     <row r="532" spans="1:2">
       <c r="A532" t="s">
-        <v>4708</v>
+        <v>4707</v>
       </c>
       <c r="B532" t="s">
         <v>194</v>
@@ -65044,7 +64939,7 @@
     </row>
     <row r="538" spans="1:2">
       <c r="A538" t="s">
-        <v>4709</v>
+        <v>4708</v>
       </c>
       <c r="B538" t="s">
         <v>196</v>
@@ -65052,7 +64947,7 @@
     </row>
     <row r="539" spans="1:2">
       <c r="A539" t="s">
-        <v>4710</v>
+        <v>4709</v>
       </c>
       <c r="B539" t="s">
         <v>196</v>
@@ -65076,7 +64971,7 @@
     </row>
     <row r="542" spans="1:2">
       <c r="A542" t="s">
-        <v>4711</v>
+        <v>4710</v>
       </c>
       <c r="B542" t="s">
         <v>197</v>
@@ -65084,7 +64979,7 @@
     </row>
     <row r="543" spans="1:2">
       <c r="A543" t="s">
-        <v>4712</v>
+        <v>4711</v>
       </c>
       <c r="B543" t="s">
         <v>197</v>
@@ -65092,7 +64987,7 @@
     </row>
     <row r="544" spans="1:2">
       <c r="A544" t="s">
-        <v>4713</v>
+        <v>4712</v>
       </c>
       <c r="B544" t="s">
         <v>197</v>
@@ -65116,7 +65011,7 @@
     </row>
     <row r="547" spans="1:2">
       <c r="A547" t="s">
-        <v>4714</v>
+        <v>4713</v>
       </c>
       <c r="B547" t="s">
         <v>198</v>
@@ -65124,7 +65019,7 @@
     </row>
     <row r="548" spans="1:2">
       <c r="A548" t="s">
-        <v>4715</v>
+        <v>4714</v>
       </c>
       <c r="B548" t="s">
         <v>198</v>
@@ -65132,7 +65027,7 @@
     </row>
     <row r="549" spans="1:2">
       <c r="A549" t="s">
-        <v>4716</v>
+        <v>4715</v>
       </c>
       <c r="B549" t="s">
         <v>198</v>
@@ -65180,7 +65075,7 @@
     </row>
     <row r="555" spans="1:2">
       <c r="A555" t="s">
-        <v>4717</v>
+        <v>4716</v>
       </c>
       <c r="B555" t="s">
         <v>200</v>
@@ -65244,7 +65139,7 @@
     </row>
     <row r="563" spans="1:2">
       <c r="A563" t="s">
-        <v>4718</v>
+        <v>4717</v>
       </c>
       <c r="B563" t="s">
         <v>203</v>
@@ -65268,7 +65163,7 @@
     </row>
     <row r="566" spans="1:2">
       <c r="A566" t="s">
-        <v>4719</v>
+        <v>4718</v>
       </c>
       <c r="B566" t="s">
         <v>204</v>
@@ -65284,7 +65179,7 @@
     </row>
     <row r="568" spans="1:2">
       <c r="A568" t="s">
-        <v>4720</v>
+        <v>4719</v>
       </c>
       <c r="B568" t="s">
         <v>204</v>
@@ -65292,7 +65187,7 @@
     </row>
     <row r="569" spans="1:2">
       <c r="A569" t="s">
-        <v>4721</v>
+        <v>4720</v>
       </c>
       <c r="B569" t="s">
         <v>204</v>
@@ -65316,7 +65211,7 @@
     </row>
     <row r="572" spans="1:2">
       <c r="A572" t="s">
-        <v>4722</v>
+        <v>4721</v>
       </c>
       <c r="B572" t="s">
         <v>205</v>
@@ -65396,7 +65291,7 @@
     </row>
     <row r="582" spans="1:2">
       <c r="A582" t="s">
-        <v>4723</v>
+        <v>4722</v>
       </c>
       <c r="B582" t="s">
         <v>209</v>
@@ -65404,7 +65299,7 @@
     </row>
     <row r="583" spans="1:2">
       <c r="A583" t="s">
-        <v>4724</v>
+        <v>4723</v>
       </c>
       <c r="B583" t="s">
         <v>209</v>
@@ -65444,7 +65339,7 @@
     </row>
     <row r="588" spans="1:2">
       <c r="A588" t="s">
-        <v>4725</v>
+        <v>4724</v>
       </c>
       <c r="B588" t="s">
         <v>211</v>
@@ -65468,7 +65363,7 @@
     </row>
     <row r="591" spans="1:2">
       <c r="A591" t="s">
-        <v>4726</v>
+        <v>4725</v>
       </c>
       <c r="B591" t="s">
         <v>212</v>
@@ -65484,7 +65379,7 @@
     </row>
     <row r="593" spans="1:2">
       <c r="A593" t="s">
-        <v>4727</v>
+        <v>4726</v>
       </c>
       <c r="B593" t="s">
         <v>212</v>
@@ -65492,7 +65387,7 @@
     </row>
     <row r="594" spans="1:2">
       <c r="A594" t="s">
-        <v>4728</v>
+        <v>4727</v>
       </c>
       <c r="B594" t="s">
         <v>212</v>
@@ -65500,7 +65395,7 @@
     </row>
     <row r="595" spans="1:2">
       <c r="A595" t="s">
-        <v>4729</v>
+        <v>4728</v>
       </c>
       <c r="B595" t="s">
         <v>212</v>
@@ -65548,7 +65443,7 @@
     </row>
     <row r="601" spans="1:2">
       <c r="A601" t="s">
-        <v>4730</v>
+        <v>4729</v>
       </c>
       <c r="B601" t="s">
         <v>214</v>
@@ -65556,7 +65451,7 @@
     </row>
     <row r="602" spans="1:2">
       <c r="A602" t="s">
-        <v>4731</v>
+        <v>4730</v>
       </c>
       <c r="B602" t="s">
         <v>214</v>
@@ -65636,7 +65531,7 @@
     </row>
     <row r="612" spans="1:2">
       <c r="A612" t="s">
-        <v>4732</v>
+        <v>4731</v>
       </c>
       <c r="B612" t="s">
         <v>218</v>
@@ -65644,7 +65539,7 @@
     </row>
     <row r="613" spans="1:2">
       <c r="A613" t="s">
-        <v>4733</v>
+        <v>4732</v>
       </c>
       <c r="B613" t="s">
         <v>218</v>
@@ -65684,7 +65579,7 @@
     </row>
     <row r="618" spans="1:2">
       <c r="A618" t="s">
-        <v>4734</v>
+        <v>4733</v>
       </c>
       <c r="B618" t="s">
         <v>220</v>
@@ -65692,7 +65587,7 @@
     </row>
     <row r="619" spans="1:2">
       <c r="A619" t="s">
-        <v>4735</v>
+        <v>4734</v>
       </c>
       <c r="B619" t="s">
         <v>220</v>
@@ -65700,7 +65595,7 @@
     </row>
     <row r="620" spans="1:2">
       <c r="A620" t="s">
-        <v>4736</v>
+        <v>4735</v>
       </c>
       <c r="B620" t="s">
         <v>220</v>
@@ -65732,7 +65627,7 @@
     </row>
     <row r="624" spans="1:2">
       <c r="A624" t="s">
-        <v>4737</v>
+        <v>4736</v>
       </c>
       <c r="B624" t="s">
         <v>221</v>
@@ -65740,7 +65635,7 @@
     </row>
     <row r="625" spans="1:2">
       <c r="A625" t="s">
-        <v>4738</v>
+        <v>4737</v>
       </c>
       <c r="B625" t="s">
         <v>221</v>
@@ -65812,7 +65707,7 @@
     </row>
     <row r="634" spans="1:2">
       <c r="A634" t="s">
-        <v>4739</v>
+        <v>4738</v>
       </c>
       <c r="B634" t="s">
         <v>225</v>
@@ -65828,7 +65723,7 @@
     </row>
     <row r="636" spans="1:2">
       <c r="A636" t="s">
-        <v>4740</v>
+        <v>4739</v>
       </c>
       <c r="B636" t="s">
         <v>225</v>
@@ -65860,7 +65755,7 @@
     </row>
     <row r="640" spans="1:2">
       <c r="A640" t="s">
-        <v>4741</v>
+        <v>4740</v>
       </c>
       <c r="B640" t="s">
         <v>226</v>
@@ -65868,7 +65763,7 @@
     </row>
     <row r="641" spans="1:2">
       <c r="A641" t="s">
-        <v>4742</v>
+        <v>4741</v>
       </c>
       <c r="B641" t="s">
         <v>226</v>
@@ -65948,7 +65843,7 @@
     </row>
     <row r="651" spans="1:2">
       <c r="A651" t="s">
-        <v>4743</v>
+        <v>4742</v>
       </c>
       <c r="B651" t="s">
         <v>230</v>
@@ -65956,7 +65851,7 @@
     </row>
     <row r="652" spans="1:2">
       <c r="A652" t="s">
-        <v>4744</v>
+        <v>4743</v>
       </c>
       <c r="B652" t="s">
         <v>230</v>
@@ -65988,7 +65883,7 @@
     </row>
     <row r="656" spans="1:2">
       <c r="A656" t="s">
-        <v>4745</v>
+        <v>4744</v>
       </c>
       <c r="B656" t="s">
         <v>231</v>
@@ -65996,7 +65891,7 @@
     </row>
     <row r="657" spans="1:2">
       <c r="A657" t="s">
-        <v>4746</v>
+        <v>4745</v>
       </c>
       <c r="B657" t="s">
         <v>231</v>
@@ -66028,7 +65923,7 @@
     </row>
     <row r="661" spans="1:2">
       <c r="A661" t="s">
-        <v>4747</v>
+        <v>4746</v>
       </c>
       <c r="B661" t="s">
         <v>232</v>
@@ -66036,7 +65931,7 @@
     </row>
     <row r="662" spans="1:2">
       <c r="A662" t="s">
-        <v>4748</v>
+        <v>4747</v>
       </c>
       <c r="B662" t="s">
         <v>232</v>
@@ -66060,7 +65955,7 @@
     </row>
     <row r="665" spans="1:2">
       <c r="A665" t="s">
-        <v>4749</v>
+        <v>4748</v>
       </c>
       <c r="B665" t="s">
         <v>233</v>
@@ -66068,7 +65963,7 @@
     </row>
     <row r="666" spans="1:2">
       <c r="A666" t="s">
-        <v>4750</v>
+        <v>4749</v>
       </c>
       <c r="B666" t="s">
         <v>233</v>
@@ -66084,7 +65979,7 @@
     </row>
     <row r="668" spans="1:2">
       <c r="A668" t="s">
-        <v>4751</v>
+        <v>4750</v>
       </c>
       <c r="B668" t="s">
         <v>233</v>
@@ -66092,7 +65987,7 @@
     </row>
     <row r="669" spans="1:2">
       <c r="A669" t="s">
-        <v>4752</v>
+        <v>4751</v>
       </c>
       <c r="B669" t="s">
         <v>233</v>
@@ -66156,7 +66051,7 @@
     </row>
     <row r="677" spans="1:2">
       <c r="A677" t="s">
-        <v>4753</v>
+        <v>4752</v>
       </c>
       <c r="B677" t="s">
         <v>236</v>
@@ -66164,7 +66059,7 @@
     </row>
     <row r="678" spans="1:2">
       <c r="A678" t="s">
-        <v>4754</v>
+        <v>4753</v>
       </c>
       <c r="B678" t="s">
         <v>236</v>
@@ -66188,7 +66083,7 @@
     </row>
     <row r="681" spans="1:2">
       <c r="A681" t="s">
-        <v>4755</v>
+        <v>4754</v>
       </c>
       <c r="B681" t="s">
         <v>237</v>
@@ -66212,7 +66107,7 @@
     </row>
     <row r="684" spans="1:2">
       <c r="A684" t="s">
-        <v>4756</v>
+        <v>4755</v>
       </c>
       <c r="B684" t="s">
         <v>238</v>
@@ -66220,7 +66115,7 @@
     </row>
     <row r="685" spans="1:2">
       <c r="A685" t="s">
-        <v>4757</v>
+        <v>4756</v>
       </c>
       <c r="B685" t="s">
         <v>238</v>
@@ -66236,7 +66131,7 @@
     </row>
     <row r="687" spans="1:2">
       <c r="A687" t="s">
-        <v>4758</v>
+        <v>4757</v>
       </c>
       <c r="B687" t="s">
         <v>238</v>
@@ -66244,7 +66139,7 @@
     </row>
     <row r="688" spans="1:2">
       <c r="A688" t="s">
-        <v>4759</v>
+        <v>4758</v>
       </c>
       <c r="B688" t="s">
         <v>238</v>
@@ -66268,7 +66163,7 @@
     </row>
     <row r="691" spans="1:2">
       <c r="A691" t="s">
-        <v>4760</v>
+        <v>4759</v>
       </c>
       <c r="B691" t="s">
         <v>239</v>
@@ -66276,7 +66171,7 @@
     </row>
     <row r="692" spans="1:2">
       <c r="A692" t="s">
-        <v>4761</v>
+        <v>4760</v>
       </c>
       <c r="B692" t="s">
         <v>239</v>
@@ -66284,7 +66179,7 @@
     </row>
     <row r="693" spans="1:2">
       <c r="A693" t="s">
-        <v>4762</v>
+        <v>4761</v>
       </c>
       <c r="B693" t="s">
         <v>239</v>
@@ -66292,7 +66187,7 @@
     </row>
     <row r="694" spans="1:2">
       <c r="A694" t="s">
-        <v>4763</v>
+        <v>4762</v>
       </c>
       <c r="B694" t="s">
         <v>239</v>
@@ -66324,7 +66219,7 @@
     </row>
     <row r="698" spans="1:2">
       <c r="A698" t="s">
-        <v>4764</v>
+        <v>4763</v>
       </c>
       <c r="B698" t="s">
         <v>240</v>
@@ -66332,7 +66227,7 @@
     </row>
     <row r="699" spans="1:2">
       <c r="A699" t="s">
-        <v>4765</v>
+        <v>4764</v>
       </c>
       <c r="B699" t="s">
         <v>240</v>
@@ -66372,7 +66267,7 @@
     </row>
     <row r="704" spans="1:2">
       <c r="A704" t="s">
-        <v>4766</v>
+        <v>4765</v>
       </c>
       <c r="B704" t="s">
         <v>242</v>
@@ -66388,7 +66283,7 @@
     </row>
     <row r="706" spans="1:2">
       <c r="A706" t="s">
-        <v>4767</v>
+        <v>4766</v>
       </c>
       <c r="B706" t="s">
         <v>242</v>
@@ -66436,7 +66331,7 @@
     </row>
     <row r="712" spans="1:2">
       <c r="A712" t="s">
-        <v>4768</v>
+        <v>4767</v>
       </c>
       <c r="B712" t="s">
         <v>244</v>
@@ -66444,7 +66339,7 @@
     </row>
     <row r="713" spans="1:2">
       <c r="A713" t="s">
-        <v>4769</v>
+        <v>4768</v>
       </c>
       <c r="B713" t="s">
         <v>244</v>
@@ -66476,7 +66371,7 @@
     </row>
     <row r="717" spans="1:2">
       <c r="A717" t="s">
-        <v>4770</v>
+        <v>4769</v>
       </c>
       <c r="B717" t="s">
         <v>245</v>
@@ -66484,7 +66379,7 @@
     </row>
     <row r="718" spans="1:2">
       <c r="A718" t="s">
-        <v>4771</v>
+        <v>4770</v>
       </c>
       <c r="B718" t="s">
         <v>245</v>
@@ -66540,7 +66435,7 @@
     </row>
     <row r="725" spans="1:2">
       <c r="A725" t="s">
-        <v>4772</v>
+        <v>4771</v>
       </c>
       <c r="B725" t="s">
         <v>248</v>
@@ -66564,7 +66459,7 @@
     </row>
     <row r="728" spans="1:2">
       <c r="A728" t="s">
-        <v>4773</v>
+        <v>4772</v>
       </c>
       <c r="B728" t="s">
         <v>249</v>
@@ -66572,7 +66467,7 @@
     </row>
     <row r="729" spans="1:2">
       <c r="A729" t="s">
-        <v>4774</v>
+        <v>4773</v>
       </c>
       <c r="B729" t="s">
         <v>249</v>
@@ -66580,7 +66475,7 @@
     </row>
     <row r="730" spans="1:2">
       <c r="A730" t="s">
-        <v>4775</v>
+        <v>4774</v>
       </c>
       <c r="B730" t="s">
         <v>249</v>
@@ -66628,7 +66523,7 @@
     </row>
     <row r="736" spans="1:2">
       <c r="A736" t="s">
-        <v>4776</v>
+        <v>4775</v>
       </c>
       <c r="B736" t="s">
         <v>251</v>
@@ -66636,7 +66531,7 @@
     </row>
     <row r="737" spans="1:2">
       <c r="A737" t="s">
-        <v>4777</v>
+        <v>4776</v>
       </c>
       <c r="B737" t="s">
         <v>251</v>
@@ -66668,7 +66563,7 @@
     </row>
     <row r="741" spans="1:2">
       <c r="A741" t="s">
-        <v>4778</v>
+        <v>4777</v>
       </c>
       <c r="B741" t="s">
         <v>252</v>
@@ -66692,7 +66587,7 @@
     </row>
     <row r="744" spans="1:2">
       <c r="A744" t="s">
-        <v>4779</v>
+        <v>4778</v>
       </c>
       <c r="B744" t="s">
         <v>253</v>
@@ -66700,7 +66595,7 @@
     </row>
     <row r="745" spans="1:2">
       <c r="A745" t="s">
-        <v>4780</v>
+        <v>4779</v>
       </c>
       <c r="B745" t="s">
         <v>253</v>
@@ -66708,7 +66603,7 @@
     </row>
     <row r="746" spans="1:2">
       <c r="A746" t="s">
-        <v>4781</v>
+        <v>4780</v>
       </c>
       <c r="B746" t="s">
         <v>253</v>
@@ -66716,7 +66611,7 @@
     </row>
     <row r="747" spans="1:2">
       <c r="A747" t="s">
-        <v>4782</v>
+        <v>4781</v>
       </c>
       <c r="B747" t="s">
         <v>253</v>
@@ -66748,7 +66643,7 @@
     </row>
     <row r="751" spans="1:2">
       <c r="A751" t="s">
-        <v>4783</v>
+        <v>4782</v>
       </c>
       <c r="B751" t="s">
         <v>254</v>
@@ -66756,7 +66651,7 @@
     </row>
     <row r="752" spans="1:2">
       <c r="A752" t="s">
-        <v>4784</v>
+        <v>4783</v>
       </c>
       <c r="B752" t="s">
         <v>254</v>
@@ -66796,7 +66691,7 @@
     </row>
     <row r="757" spans="1:2">
       <c r="A757" t="s">
-        <v>4785</v>
+        <v>4784</v>
       </c>
       <c r="B757" t="s">
         <v>256</v>
@@ -66804,7 +66699,7 @@
     </row>
     <row r="758" spans="1:2">
       <c r="A758" t="s">
-        <v>4786</v>
+        <v>4785</v>
       </c>
       <c r="B758" t="s">
         <v>256</v>
@@ -66812,7 +66707,7 @@
     </row>
     <row r="759" spans="1:2">
       <c r="A759" t="s">
-        <v>4787</v>
+        <v>4786</v>
       </c>
       <c r="B759" t="s">
         <v>256</v>
@@ -66820,7 +66715,7 @@
     </row>
     <row r="760" spans="1:2">
       <c r="A760" t="s">
-        <v>4788</v>
+        <v>4787</v>
       </c>
       <c r="B760" t="s">
         <v>256</v>
@@ -66828,7 +66723,7 @@
     </row>
     <row r="761" spans="1:2">
       <c r="A761" t="s">
-        <v>4789</v>
+        <v>4788</v>
       </c>
       <c r="B761" t="s">
         <v>256</v>
@@ -66836,7 +66731,7 @@
     </row>
     <row r="762" spans="1:2">
       <c r="A762" t="s">
-        <v>4790</v>
+        <v>4789</v>
       </c>
       <c r="B762" t="s">
         <v>256</v>
@@ -66844,7 +66739,7 @@
     </row>
     <row r="763" spans="1:2">
       <c r="A763" t="s">
-        <v>4791</v>
+        <v>4790</v>
       </c>
       <c r="B763" t="s">
         <v>256</v>
@@ -66852,7 +66747,7 @@
     </row>
     <row r="764" spans="1:2">
       <c r="A764" t="s">
-        <v>4792</v>
+        <v>4791</v>
       </c>
       <c r="B764" t="s">
         <v>256</v>
@@ -66860,7 +66755,7 @@
     </row>
     <row r="765" spans="1:2">
       <c r="A765" t="s">
-        <v>4793</v>
+        <v>4792</v>
       </c>
       <c r="B765" t="s">
         <v>256</v>
@@ -66884,7 +66779,7 @@
     </row>
     <row r="768" spans="1:2">
       <c r="A768" t="s">
-        <v>4794</v>
+        <v>4793</v>
       </c>
       <c r="B768" t="s">
         <v>257</v>
@@ -66892,7 +66787,7 @@
     </row>
     <row r="769" spans="1:2">
       <c r="A769" t="s">
-        <v>4795</v>
+        <v>4794</v>
       </c>
       <c r="B769" t="s">
         <v>257</v>
@@ -66900,7 +66795,7 @@
     </row>
     <row r="770" spans="1:2">
       <c r="A770" t="s">
-        <v>4796</v>
+        <v>4795</v>
       </c>
       <c r="B770" t="s">
         <v>257</v>
@@ -66908,7 +66803,7 @@
     </row>
     <row r="771" spans="1:2">
       <c r="A771" t="s">
-        <v>4797</v>
+        <v>4796</v>
       </c>
       <c r="B771" t="s">
         <v>257</v>
@@ -66916,7 +66811,7 @@
     </row>
     <row r="772" spans="1:2">
       <c r="A772" t="s">
-        <v>4798</v>
+        <v>4797</v>
       </c>
       <c r="B772" t="s">
         <v>257</v>
@@ -66924,7 +66819,7 @@
     </row>
     <row r="773" spans="1:2">
       <c r="A773" t="s">
-        <v>4799</v>
+        <v>4798</v>
       </c>
       <c r="B773" t="s">
         <v>257</v>
@@ -66932,7 +66827,7 @@
     </row>
     <row r="774" spans="1:2">
       <c r="A774" t="s">
-        <v>4800</v>
+        <v>4799</v>
       </c>
       <c r="B774" t="s">
         <v>257</v>
@@ -66964,7 +66859,7 @@
     </row>
     <row r="778" spans="1:2">
       <c r="A778" t="s">
-        <v>4801</v>
+        <v>4800</v>
       </c>
       <c r="B778" t="s">
         <v>258</v>
@@ -66972,7 +66867,7 @@
     </row>
     <row r="779" spans="1:2">
       <c r="A779" t="s">
-        <v>4802</v>
+        <v>4801</v>
       </c>
       <c r="B779" t="s">
         <v>258</v>
@@ -66996,7 +66891,7 @@
     </row>
     <row r="782" spans="1:2">
       <c r="A782" t="s">
-        <v>4803</v>
+        <v>4802</v>
       </c>
       <c r="B782" t="s">
         <v>259</v>
@@ -67004,7 +66899,7 @@
     </row>
     <row r="783" spans="1:2">
       <c r="A783" t="s">
-        <v>4804</v>
+        <v>4803</v>
       </c>
       <c r="B783" t="s">
         <v>259</v>
@@ -67020,7 +66915,7 @@
     </row>
     <row r="785" spans="1:2">
       <c r="A785" t="s">
-        <v>4805</v>
+        <v>4804</v>
       </c>
       <c r="B785" t="s">
         <v>259</v>
@@ -67052,7 +66947,7 @@
     </row>
     <row r="789" spans="1:2">
       <c r="A789" t="s">
-        <v>4806</v>
+        <v>4805</v>
       </c>
       <c r="B789" t="s">
         <v>260</v>
@@ -67060,7 +66955,7 @@
     </row>
     <row r="790" spans="1:2">
       <c r="A790" t="s">
-        <v>4807</v>
+        <v>4806</v>
       </c>
       <c r="B790" t="s">
         <v>260</v>
@@ -67092,7 +66987,7 @@
     </row>
     <row r="794" spans="1:2">
       <c r="A794" t="s">
-        <v>4808</v>
+        <v>4807</v>
       </c>
       <c r="B794" t="s">
         <v>261</v>
@@ -67100,7 +66995,7 @@
     </row>
     <row r="795" spans="1:2">
       <c r="A795" t="s">
-        <v>4809</v>
+        <v>4808</v>
       </c>
       <c r="B795" t="s">
         <v>261</v>
@@ -67108,7 +67003,7 @@
     </row>
     <row r="796" spans="1:2">
       <c r="A796" t="s">
-        <v>4810</v>
+        <v>4809</v>
       </c>
       <c r="B796" t="s">
         <v>261</v>
@@ -67140,7 +67035,7 @@
     </row>
     <row r="800" spans="1:2">
       <c r="A800" t="s">
-        <v>4811</v>
+        <v>4810</v>
       </c>
       <c r="B800" t="s">
         <v>262</v>
@@ -67148,7 +67043,7 @@
     </row>
     <row r="801" spans="1:2">
       <c r="A801" t="s">
-        <v>4812</v>
+        <v>4811</v>
       </c>
       <c r="B801" t="s">
         <v>262</v>
@@ -67172,7 +67067,7 @@
     </row>
     <row r="804" spans="1:2">
       <c r="A804" t="s">
-        <v>4813</v>
+        <v>4812</v>
       </c>
       <c r="B804" t="s">
         <v>263</v>
@@ -67180,7 +67075,7 @@
     </row>
     <row r="805" spans="1:2">
       <c r="A805" t="s">
-        <v>4814</v>
+        <v>4813</v>
       </c>
       <c r="B805" t="s">
         <v>263</v>
@@ -67212,7 +67107,7 @@
     </row>
     <row r="809" spans="1:2">
       <c r="A809" t="s">
-        <v>4815</v>
+        <v>4814</v>
       </c>
       <c r="B809" t="s">
         <v>264</v>
@@ -67220,7 +67115,7 @@
     </row>
     <row r="810" spans="1:2">
       <c r="A810" t="s">
-        <v>4816</v>
+        <v>4815</v>
       </c>
       <c r="B810" t="s">
         <v>264</v>
@@ -67244,7 +67139,7 @@
     </row>
     <row r="813" spans="1:2">
       <c r="A813" t="s">
-        <v>4817</v>
+        <v>4816</v>
       </c>
       <c r="B813" t="s">
         <v>265</v>
@@ -67252,7 +67147,7 @@
     </row>
     <row r="814" spans="1:2">
       <c r="A814" t="s">
-        <v>4818</v>
+        <v>4817</v>
       </c>
       <c r="B814" t="s">
         <v>265</v>
@@ -67260,7 +67155,7 @@
     </row>
     <row r="815" spans="1:2">
       <c r="A815" t="s">
-        <v>4819</v>
+        <v>4818</v>
       </c>
       <c r="B815" t="s">
         <v>265</v>
@@ -67276,7 +67171,7 @@
     </row>
     <row r="817" spans="1:2">
       <c r="A817" t="s">
-        <v>4820</v>
+        <v>4819</v>
       </c>
       <c r="B817" t="s">
         <v>265</v>
@@ -67284,7 +67179,7 @@
     </row>
     <row r="818" spans="1:2">
       <c r="A818" t="s">
-        <v>4821</v>
+        <v>4820</v>
       </c>
       <c r="B818" t="s">
         <v>265</v>
@@ -67300,7 +67195,7 @@
     </row>
     <row r="820" spans="1:2">
       <c r="A820" t="s">
-        <v>4822</v>
+        <v>4821</v>
       </c>
       <c r="B820" t="s">
         <v>266</v>
@@ -67308,7 +67203,7 @@
     </row>
     <row r="821" spans="1:2">
       <c r="A821" t="s">
-        <v>4823</v>
+        <v>4822</v>
       </c>
       <c r="B821" t="s">
         <v>266</v>
@@ -67340,7 +67235,7 @@
     </row>
     <row r="825" spans="1:2">
       <c r="A825" t="s">
-        <v>4824</v>
+        <v>4823</v>
       </c>
       <c r="B825" t="s">
         <v>267</v>
@@ -67348,7 +67243,7 @@
     </row>
     <row r="826" spans="1:2">
       <c r="A826" t="s">
-        <v>4825</v>
+        <v>4824</v>
       </c>
       <c r="B826" t="s">
         <v>267</v>
@@ -67380,7 +67275,7 @@
     </row>
     <row r="830" spans="1:2">
       <c r="A830" t="s">
-        <v>4826</v>
+        <v>4825</v>
       </c>
       <c r="B830" t="s">
         <v>268</v>
@@ -67388,7 +67283,7 @@
     </row>
     <row r="831" spans="1:2">
       <c r="A831" t="s">
-        <v>4827</v>
+        <v>4826</v>
       </c>
       <c r="B831" t="s">
         <v>268</v>
@@ -67436,7 +67331,7 @@
     </row>
     <row r="837" spans="1:2">
       <c r="A837" t="s">
-        <v>4828</v>
+        <v>4827</v>
       </c>
       <c r="B837" t="s">
         <v>270</v>
@@ -67444,7 +67339,7 @@
     </row>
     <row r="838" spans="1:2">
       <c r="A838" t="s">
-        <v>4829</v>
+        <v>4828</v>
       </c>
       <c r="B838" t="s">
         <v>270</v>
@@ -67468,7 +67363,7 @@
     </row>
     <row r="841" spans="1:2">
       <c r="A841" t="s">
-        <v>4830</v>
+        <v>4829</v>
       </c>
       <c r="B841" t="s">
         <v>271</v>
@@ -67516,7 +67411,7 @@
     </row>
     <row r="847" spans="1:2">
       <c r="A847" t="s">
-        <v>4831</v>
+        <v>4830</v>
       </c>
       <c r="B847" t="s">
         <v>273</v>
@@ -67524,7 +67419,7 @@
     </row>
     <row r="848" spans="1:2">
       <c r="A848" t="s">
-        <v>4832</v>
+        <v>4831</v>
       </c>
       <c r="B848" t="s">
         <v>273</v>
@@ -67556,7 +67451,7 @@
     </row>
     <row r="852" spans="1:2">
       <c r="A852" t="s">
-        <v>4833</v>
+        <v>4832</v>
       </c>
       <c r="B852" t="s">
         <v>274</v>
@@ -67564,7 +67459,7 @@
     </row>
     <row r="853" spans="1:2">
       <c r="A853" t="s">
-        <v>4834</v>
+        <v>4833</v>
       </c>
       <c r="B853" t="s">
         <v>274</v>
@@ -67588,7 +67483,7 @@
     </row>
     <row r="856" spans="1:2">
       <c r="A856" t="s">
-        <v>4835</v>
+        <v>4834</v>
       </c>
       <c r="B856" t="s">
         <v>275</v>
@@ -67596,7 +67491,7 @@
     </row>
     <row r="857" spans="1:2">
       <c r="A857" t="s">
-        <v>4836</v>
+        <v>4835</v>
       </c>
       <c r="B857" t="s">
         <v>275</v>
@@ -67604,7 +67499,7 @@
     </row>
     <row r="858" spans="1:2">
       <c r="A858" t="s">
-        <v>4837</v>
+        <v>4836</v>
       </c>
       <c r="B858" t="s">
         <v>275</v>
@@ -67628,7 +67523,7 @@
     </row>
     <row r="861" spans="1:2">
       <c r="A861" t="s">
-        <v>4838</v>
+        <v>4837</v>
       </c>
       <c r="B861" t="s">
         <v>276</v>
@@ -67644,7 +67539,7 @@
     </row>
     <row r="863" spans="1:2">
       <c r="A863" t="s">
-        <v>4839</v>
+        <v>4838</v>
       </c>
       <c r="B863" t="s">
         <v>276</v>
@@ -67708,7 +67603,7 @@
     </row>
     <row r="871" spans="1:2">
       <c r="A871" t="s">
-        <v>4840</v>
+        <v>4839</v>
       </c>
       <c r="B871" t="s">
         <v>279</v>
@@ -67716,7 +67611,7 @@
     </row>
     <row r="872" spans="1:2">
       <c r="A872" t="s">
-        <v>4841</v>
+        <v>4840</v>
       </c>
       <c r="B872" t="s">
         <v>279</v>
@@ -67772,7 +67667,7 @@
     </row>
     <row r="879" spans="1:2">
       <c r="A879" t="s">
-        <v>4842</v>
+        <v>4841</v>
       </c>
       <c r="B879" t="s">
         <v>282</v>
@@ -67788,7 +67683,7 @@
     </row>
     <row r="881" spans="1:2">
       <c r="A881" t="s">
-        <v>4843</v>
+        <v>4842</v>
       </c>
       <c r="B881" t="s">
         <v>282</v>
@@ -67828,7 +67723,7 @@
     </row>
     <row r="886" spans="1:2">
       <c r="A886" t="s">
-        <v>4844</v>
+        <v>4843</v>
       </c>
       <c r="B886" t="s">
         <v>284</v>
@@ -67836,7 +67731,7 @@
     </row>
     <row r="887" spans="1:2">
       <c r="A887" t="s">
-        <v>4845</v>
+        <v>4844</v>
       </c>
       <c r="B887" t="s">
         <v>284</v>
@@ -67852,7 +67747,7 @@
     </row>
     <row r="889" spans="1:2">
       <c r="A889" t="s">
-        <v>4846</v>
+        <v>4845</v>
       </c>
       <c r="B889" t="s">
         <v>284</v>
@@ -67876,7 +67771,7 @@
     </row>
     <row r="892" spans="1:2">
       <c r="A892" t="s">
-        <v>4847</v>
+        <v>4846</v>
       </c>
       <c r="B892" t="s">
         <v>285</v>
@@ -67932,7 +67827,7 @@
     </row>
     <row r="899" spans="1:2">
       <c r="A899" t="s">
-        <v>4848</v>
+        <v>4847</v>
       </c>
       <c r="B899" t="s">
         <v>288</v>
@@ -67940,7 +67835,7 @@
     </row>
     <row r="900" spans="1:2">
       <c r="A900" t="s">
-        <v>4849</v>
+        <v>4848</v>
       </c>
       <c r="B900" t="s">
         <v>288</v>
@@ -67948,7 +67843,7 @@
     </row>
     <row r="901" spans="1:2">
       <c r="A901" t="s">
-        <v>4850</v>
+        <v>4849</v>
       </c>
       <c r="B901" t="s">
         <v>288</v>
@@ -67980,7 +67875,7 @@
     </row>
     <row r="905" spans="1:2">
       <c r="A905" t="s">
-        <v>4851</v>
+        <v>4850</v>
       </c>
       <c r="B905" t="s">
         <v>289</v>
@@ -68020,7 +67915,7 @@
     </row>
     <row r="910" spans="1:2">
       <c r="A910" t="s">
-        <v>4852</v>
+        <v>4851</v>
       </c>
       <c r="B910" t="s">
         <v>291</v>
@@ -68036,7 +67931,7 @@
     </row>
     <row r="912" spans="1:2">
       <c r="A912" t="s">
-        <v>4853</v>
+        <v>4852</v>
       </c>
       <c r="B912" t="s">
         <v>291</v>
@@ -68044,7 +67939,7 @@
     </row>
     <row r="913" spans="1:2">
       <c r="A913" t="s">
-        <v>4854</v>
+        <v>4853</v>
       </c>
       <c r="B913" t="s">
         <v>291</v>
@@ -68068,7 +67963,7 @@
     </row>
     <row r="916" spans="1:2">
       <c r="A916" t="s">
-        <v>4855</v>
+        <v>4854</v>
       </c>
       <c r="B916" t="s">
         <v>292</v>
@@ -68084,7 +67979,7 @@
     </row>
     <row r="918" spans="1:2">
       <c r="A918" t="s">
-        <v>4856</v>
+        <v>4855</v>
       </c>
       <c r="B918" t="s">
         <v>292</v>
@@ -68108,7 +68003,7 @@
     </row>
     <row r="921" spans="1:2">
       <c r="A921" t="s">
-        <v>4857</v>
+        <v>4856</v>
       </c>
       <c r="B921" t="s">
         <v>293</v>
@@ -68124,7 +68019,7 @@
     </row>
     <row r="923" spans="1:2">
       <c r="A923" t="s">
-        <v>4858</v>
+        <v>4857</v>
       </c>
       <c r="B923" t="s">
         <v>293</v>
@@ -68180,7 +68075,7 @@
     </row>
     <row r="930" spans="1:2">
       <c r="A930" t="s">
-        <v>4859</v>
+        <v>4858</v>
       </c>
       <c r="B930" t="s">
         <v>296</v>
@@ -68188,7 +68083,7 @@
     </row>
     <row r="931" spans="1:2">
       <c r="A931" t="s">
-        <v>4860</v>
+        <v>4859</v>
       </c>
       <c r="B931" t="s">
         <v>296</v>
@@ -68196,7 +68091,7 @@
     </row>
     <row r="932" spans="1:2">
       <c r="A932" t="s">
-        <v>4861</v>
+        <v>4860</v>
       </c>
       <c r="B932" t="s">
         <v>296</v>
@@ -68204,7 +68099,7 @@
     </row>
     <row r="933" spans="1:2">
       <c r="A933" t="s">
-        <v>4862</v>
+        <v>4861</v>
       </c>
       <c r="B933" t="s">
         <v>296</v>
@@ -68212,7 +68107,7 @@
     </row>
     <row r="934" spans="1:2">
       <c r="A934" t="s">
-        <v>4863</v>
+        <v>4862</v>
       </c>
       <c r="B934" t="s">
         <v>296</v>
@@ -68236,7 +68131,7 @@
     </row>
     <row r="937" spans="1:2">
       <c r="A937" t="s">
-        <v>4864</v>
+        <v>4863</v>
       </c>
       <c r="B937" t="s">
         <v>297</v>
@@ -68244,7 +68139,7 @@
     </row>
     <row r="938" spans="1:2">
       <c r="A938" t="s">
-        <v>4865</v>
+        <v>4864</v>
       </c>
       <c r="B938" t="s">
         <v>297</v>
@@ -68268,7 +68163,7 @@
     </row>
     <row r="941" spans="1:2">
       <c r="A941" t="s">
-        <v>4866</v>
+        <v>4865</v>
       </c>
       <c r="B941" t="s">
         <v>298</v>
@@ -68276,7 +68171,7 @@
     </row>
     <row r="942" spans="1:2">
       <c r="A942" t="s">
-        <v>4867</v>
+        <v>4866</v>
       </c>
       <c r="B942" t="s">
         <v>298</v>
@@ -68300,7 +68195,7 @@
     </row>
     <row r="945" spans="1:2">
       <c r="A945" t="s">
-        <v>4868</v>
+        <v>4867</v>
       </c>
       <c r="B945" t="s">
         <v>299</v>
@@ -68316,7 +68211,7 @@
     </row>
     <row r="947" spans="1:2">
       <c r="A947" t="s">
-        <v>4869</v>
+        <v>4868</v>
       </c>
       <c r="B947" t="s">
         <v>299</v>
@@ -68340,7 +68235,7 @@
     </row>
     <row r="950" spans="1:2">
       <c r="A950" t="s">
-        <v>4870</v>
+        <v>4869</v>
       </c>
       <c r="B950" t="s">
         <v>300</v>
@@ -68348,7 +68243,7 @@
     </row>
     <row r="951" spans="1:2">
       <c r="A951" t="s">
-        <v>4871</v>
+        <v>4870</v>
       </c>
       <c r="B951" t="s">
         <v>300</v>
@@ -68356,7 +68251,7 @@
     </row>
     <row r="952" spans="1:2">
       <c r="A952" t="s">
-        <v>4872</v>
+        <v>4871</v>
       </c>
       <c r="B952" t="s">
         <v>300</v>
@@ -68380,7 +68275,7 @@
     </row>
     <row r="955" spans="1:2">
       <c r="A955" t="s">
-        <v>4873</v>
+        <v>4872</v>
       </c>
       <c r="B955" t="s">
         <v>301</v>
@@ -68388,7 +68283,7 @@
     </row>
     <row r="956" spans="1:2">
       <c r="A956" t="s">
-        <v>4874</v>
+        <v>4873</v>
       </c>
       <c r="B956" t="s">
         <v>301</v>
@@ -68396,7 +68291,7 @@
     </row>
     <row r="957" spans="1:2">
       <c r="A957" t="s">
-        <v>4875</v>
+        <v>4874</v>
       </c>
       <c r="B957" t="s">
         <v>301</v>
@@ -68420,7 +68315,7 @@
     </row>
     <row r="960" spans="1:2">
       <c r="A960" t="s">
-        <v>4876</v>
+        <v>4875</v>
       </c>
       <c r="B960" t="s">
         <v>302</v>
@@ -68452,7 +68347,7 @@
     </row>
     <row r="964" spans="1:2">
       <c r="A964" t="s">
-        <v>4877</v>
+        <v>4876</v>
       </c>
       <c r="B964" t="s">
         <v>303</v>
@@ -68460,7 +68355,7 @@
     </row>
     <row r="965" spans="1:2">
       <c r="A965" t="s">
-        <v>4878</v>
+        <v>4877</v>
       </c>
       <c r="B965" t="s">
         <v>303</v>
@@ -68516,7 +68411,7 @@
     </row>
     <row r="972" spans="1:2">
       <c r="A972" t="s">
-        <v>4879</v>
+        <v>4878</v>
       </c>
       <c r="B972" t="s">
         <v>306</v>
@@ -68524,7 +68419,7 @@
     </row>
     <row r="973" spans="1:2">
       <c r="A973" t="s">
-        <v>4880</v>
+        <v>4879</v>
       </c>
       <c r="B973" t="s">
         <v>306</v>
@@ -68532,7 +68427,7 @@
     </row>
     <row r="974" spans="1:2">
       <c r="A974" t="s">
-        <v>4881</v>
+        <v>4880</v>
       </c>
       <c r="B974" t="s">
         <v>306</v>
@@ -68556,7 +68451,7 @@
     </row>
     <row r="977" spans="1:2">
       <c r="A977" t="s">
-        <v>4882</v>
+        <v>4881</v>
       </c>
       <c r="B977" t="s">
         <v>307</v>
@@ -68564,7 +68459,7 @@
     </row>
     <row r="978" spans="1:2">
       <c r="A978" t="s">
-        <v>4883</v>
+        <v>4882</v>
       </c>
       <c r="B978" t="s">
         <v>307</v>
@@ -68572,7 +68467,7 @@
     </row>
     <row r="979" spans="1:2">
       <c r="A979" t="s">
-        <v>4884</v>
+        <v>4883</v>
       </c>
       <c r="B979" t="s">
         <v>307</v>
@@ -68580,7 +68475,7 @@
     </row>
     <row r="980" spans="1:2">
       <c r="A980" t="s">
-        <v>4885</v>
+        <v>4884</v>
       </c>
       <c r="B980" t="s">
         <v>307</v>
@@ -68628,7 +68523,7 @@
     </row>
     <row r="986" spans="1:2">
       <c r="A986" t="s">
-        <v>4886</v>
+        <v>4885</v>
       </c>
       <c r="B986" t="s">
         <v>309</v>
@@ -68636,7 +68531,7 @@
     </row>
     <row r="987" spans="1:2">
       <c r="A987" t="s">
-        <v>4887</v>
+        <v>4886</v>
       </c>
       <c r="B987" t="s">
         <v>309</v>
@@ -68660,7 +68555,7 @@
     </row>
     <row r="990" spans="1:2">
       <c r="A990" t="s">
-        <v>4888</v>
+        <v>4887</v>
       </c>
       <c r="B990" t="s">
         <v>310</v>
@@ -68668,7 +68563,7 @@
     </row>
     <row r="991" spans="1:2">
       <c r="A991" t="s">
-        <v>4889</v>
+        <v>4888</v>
       </c>
       <c r="B991" t="s">
         <v>310</v>
@@ -68676,7 +68571,7 @@
     </row>
     <row r="992" spans="1:2">
       <c r="A992" t="s">
-        <v>4890</v>
+        <v>4889</v>
       </c>
       <c r="B992" t="s">
         <v>310</v>
@@ -68692,7 +68587,7 @@
     </row>
     <row r="994" spans="1:2">
       <c r="A994" t="s">
-        <v>4891</v>
+        <v>4890</v>
       </c>
       <c r="B994" t="s">
         <v>310</v>
@@ -68700,7 +68595,7 @@
     </row>
     <row r="995" spans="1:2">
       <c r="A995" t="s">
-        <v>4892</v>
+        <v>4891</v>
       </c>
       <c r="B995" t="s">
         <v>310</v>
@@ -69156,7 +69051,7 @@
     </row>
     <row r="1052" spans="1:2">
       <c r="A1052" t="s">
-        <v>4893</v>
+        <v>4892</v>
       </c>
       <c r="B1052" t="s">
         <v>338</v>
@@ -69164,7 +69059,7 @@
     </row>
     <row r="1053" spans="1:2">
       <c r="A1053" t="s">
-        <v>4894</v>
+        <v>4893</v>
       </c>
       <c r="B1053" t="s">
         <v>338</v>
@@ -69188,7 +69083,7 @@
     </row>
     <row r="1056" spans="1:2">
       <c r="A1056" t="s">
-        <v>4895</v>
+        <v>4894</v>
       </c>
       <c r="B1056" t="s">
         <v>339</v>
@@ -69196,7 +69091,7 @@
     </row>
     <row r="1057" spans="1:2">
       <c r="A1057" t="s">
-        <v>4896</v>
+        <v>4895</v>
       </c>
       <c r="B1057" t="s">
         <v>339</v>
@@ -69204,7 +69099,7 @@
     </row>
     <row r="1058" spans="1:2">
       <c r="A1058" t="s">
-        <v>4897</v>
+        <v>4896</v>
       </c>
       <c r="B1058" t="s">
         <v>339</v>
@@ -69228,7 +69123,7 @@
     </row>
     <row r="1061" spans="1:2">
       <c r="A1061" t="s">
-        <v>4898</v>
+        <v>4897</v>
       </c>
       <c r="B1061" t="s">
         <v>340</v>
@@ -69316,7 +69211,7 @@
     </row>
     <row r="1072" spans="1:2">
       <c r="A1072" t="s">
-        <v>4899</v>
+        <v>4898</v>
       </c>
       <c r="B1072" t="s">
         <v>345</v>
@@ -69324,7 +69219,7 @@
     </row>
     <row r="1073" spans="1:2">
       <c r="A1073" t="s">
-        <v>4900</v>
+        <v>4899</v>
       </c>
       <c r="B1073" t="s">
         <v>345</v>
@@ -69332,7 +69227,7 @@
     </row>
     <row r="1074" spans="1:2">
       <c r="A1074" t="s">
-        <v>4901</v>
+        <v>4900</v>
       </c>
       <c r="B1074" t="s">
         <v>345</v>
@@ -69340,7 +69235,7 @@
     </row>
     <row r="1075" spans="1:2">
       <c r="A1075" t="s">
-        <v>4902</v>
+        <v>4901</v>
       </c>
       <c r="B1075" t="s">
         <v>345</v>
@@ -69356,7 +69251,7 @@
     </row>
     <row r="1077" spans="1:2">
       <c r="A1077" t="s">
-        <v>4903</v>
+        <v>4902</v>
       </c>
       <c r="B1077" t="s">
         <v>346</v>
@@ -69364,7 +69259,7 @@
     </row>
     <row r="1078" spans="1:2">
       <c r="A1078" t="s">
-        <v>4904</v>
+        <v>4903</v>
       </c>
       <c r="B1078" t="s">
         <v>346</v>
@@ -69396,7 +69291,7 @@
     </row>
     <row r="1082" spans="1:2">
       <c r="A1082" t="s">
-        <v>4905</v>
+        <v>4904</v>
       </c>
       <c r="B1082" t="s">
         <v>347</v>
@@ -69404,7 +69299,7 @@
     </row>
     <row r="1083" spans="1:2">
       <c r="A1083" t="s">
-        <v>4906</v>
+        <v>4905</v>
       </c>
       <c r="B1083" t="s">
         <v>347</v>
@@ -69428,7 +69323,7 @@
     </row>
     <row r="1086" spans="1:2">
       <c r="A1086" t="s">
-        <v>4907</v>
+        <v>4906</v>
       </c>
       <c r="B1086" t="s">
         <v>348</v>
@@ -69436,7 +69331,7 @@
     </row>
     <row r="1087" spans="1:2">
       <c r="A1087" t="s">
-        <v>4908</v>
+        <v>4907</v>
       </c>
       <c r="B1087" t="s">
         <v>348</v>
@@ -69444,7 +69339,7 @@
     </row>
     <row r="1088" spans="1:2">
       <c r="A1088" t="s">
-        <v>4909</v>
+        <v>4908</v>
       </c>
       <c r="B1088" t="s">
         <v>348</v>
@@ -69452,7 +69347,7 @@
     </row>
     <row r="1089" spans="1:2">
       <c r="A1089" t="s">
-        <v>4910</v>
+        <v>4909</v>
       </c>
       <c r="B1089" t="s">
         <v>348</v>
@@ -69484,7 +69379,7 @@
     </row>
     <row r="1093" spans="1:2">
       <c r="A1093" t="s">
-        <v>4911</v>
+        <v>4910</v>
       </c>
       <c r="B1093" t="s">
         <v>349</v>
@@ -69492,7 +69387,7 @@
     </row>
     <row r="1094" spans="1:2">
       <c r="A1094" t="s">
-        <v>4912</v>
+        <v>4911</v>
       </c>
       <c r="B1094" t="s">
         <v>349</v>
@@ -69516,7 +69411,7 @@
     </row>
     <row r="1097" spans="1:2">
       <c r="A1097" t="s">
-        <v>4913</v>
+        <v>4912</v>
       </c>
       <c r="B1097" t="s">
         <v>350</v>
@@ -69524,7 +69419,7 @@
     </row>
     <row r="1098" spans="1:2">
       <c r="A1098" t="s">
-        <v>4914</v>
+        <v>4913</v>
       </c>
       <c r="B1098" t="s">
         <v>350</v>
@@ -69532,7 +69427,7 @@
     </row>
     <row r="1099" spans="1:2">
       <c r="A1099" t="s">
-        <v>4915</v>
+        <v>4914</v>
       </c>
       <c r="B1099" t="s">
         <v>350</v>
@@ -69540,7 +69435,7 @@
     </row>
     <row r="1100" spans="1:2">
       <c r="A1100" t="s">
-        <v>4916</v>
+        <v>4915</v>
       </c>
       <c r="B1100" t="s">
         <v>350</v>
@@ -69564,7 +69459,7 @@
     </row>
     <row r="1103" spans="1:2">
       <c r="A1103" t="s">
-        <v>4917</v>
+        <v>4916</v>
       </c>
       <c r="B1103" t="s">
         <v>351</v>
@@ -69604,7 +69499,7 @@
     </row>
     <row r="1108" spans="1:2">
       <c r="A1108" t="s">
-        <v>4918</v>
+        <v>4917</v>
       </c>
       <c r="B1108" t="s">
         <v>353</v>
@@ -69612,7 +69507,7 @@
     </row>
     <row r="1109" spans="1:2">
       <c r="A1109" t="s">
-        <v>4919</v>
+        <v>4918</v>
       </c>
       <c r="B1109" t="s">
         <v>353</v>
@@ -69620,7 +69515,7 @@
     </row>
     <row r="1110" spans="1:2">
       <c r="A1110" t="s">
-        <v>4920</v>
+        <v>4919</v>
       </c>
       <c r="B1110" t="s">
         <v>353</v>
@@ -69644,7 +69539,7 @@
     </row>
     <row r="1113" spans="1:2">
       <c r="A1113" t="s">
-        <v>4921</v>
+        <v>4920</v>
       </c>
       <c r="B1113" t="s">
         <v>354</v>
@@ -69660,7 +69555,7 @@
     </row>
     <row r="1115" spans="1:2">
       <c r="A1115" t="s">
-        <v>4922</v>
+        <v>4921</v>
       </c>
       <c r="B1115" t="s">
         <v>354</v>
@@ -69684,7 +69579,7 @@
     </row>
     <row r="1118" spans="1:2">
       <c r="A1118" t="s">
-        <v>4923</v>
+        <v>4922</v>
       </c>
       <c r="B1118" t="s">
         <v>355</v>
@@ -69692,7 +69587,7 @@
     </row>
     <row r="1119" spans="1:2">
       <c r="A1119" t="s">
-        <v>4924</v>
+        <v>4923</v>
       </c>
       <c r="B1119" t="s">
         <v>355</v>
@@ -69708,7 +69603,7 @@
     </row>
     <row r="1121" spans="1:2">
       <c r="A1121" t="s">
-        <v>4925</v>
+        <v>4924</v>
       </c>
       <c r="B1121" t="s">
         <v>355</v>
@@ -69732,7 +69627,7 @@
     </row>
     <row r="1124" spans="1:2">
       <c r="A1124" t="s">
-        <v>4926</v>
+        <v>4925</v>
       </c>
       <c r="B1124" t="s">
         <v>356</v>
@@ -69740,7 +69635,7 @@
     </row>
     <row r="1125" spans="1:2">
       <c r="A1125" t="s">
-        <v>4927</v>
+        <v>4926</v>
       </c>
       <c r="B1125" t="s">
         <v>356</v>
@@ -69748,7 +69643,7 @@
     </row>
     <row r="1126" spans="1:2">
       <c r="A1126" t="s">
-        <v>4928</v>
+        <v>4927</v>
       </c>
       <c r="B1126" t="s">
         <v>356</v>
@@ -69772,7 +69667,7 @@
     </row>
     <row r="1129" spans="1:2">
       <c r="A1129" t="s">
-        <v>4929</v>
+        <v>4928</v>
       </c>
       <c r="B1129" t="s">
         <v>357</v>
@@ -69804,7 +69699,7 @@
     </row>
     <row r="1133" spans="1:2">
       <c r="A1133" t="s">
-        <v>4930</v>
+        <v>4929</v>
       </c>
       <c r="B1133" t="s">
         <v>358</v>
@@ -69812,7 +69707,7 @@
     </row>
     <row r="1134" spans="1:2">
       <c r="A1134" t="s">
-        <v>4931</v>
+        <v>4930</v>
       </c>
       <c r="B1134" t="s">
         <v>358</v>
@@ -69836,7 +69731,7 @@
     </row>
     <row r="1137" spans="1:2">
       <c r="A1137" t="s">
-        <v>4932</v>
+        <v>4931</v>
       </c>
       <c r="B1137" t="s">
         <v>359</v>
@@ -69844,7 +69739,7 @@
     </row>
     <row r="1138" spans="1:2">
       <c r="A1138" t="s">
-        <v>4933</v>
+        <v>4932</v>
       </c>
       <c r="B1138" t="s">
         <v>359</v>
@@ -69852,7 +69747,7 @@
     </row>
     <row r="1139" spans="1:2">
       <c r="A1139" t="s">
-        <v>4934</v>
+        <v>4933</v>
       </c>
       <c r="B1139" t="s">
         <v>359</v>
@@ -69884,7 +69779,7 @@
     </row>
     <row r="1143" spans="1:2">
       <c r="A1143" t="s">
-        <v>4935</v>
+        <v>4934</v>
       </c>
       <c r="B1143" t="s">
         <v>360</v>
@@ -69892,7 +69787,7 @@
     </row>
     <row r="1144" spans="1:2">
       <c r="A1144" t="s">
-        <v>4936</v>
+        <v>4935</v>
       </c>
       <c r="B1144" t="s">
         <v>360</v>
@@ -69932,7 +69827,7 @@
     </row>
     <row r="1149" spans="1:2">
       <c r="A1149" t="s">
-        <v>4937</v>
+        <v>4936</v>
       </c>
       <c r="B1149" t="s">
         <v>362</v>
@@ -69948,7 +69843,7 @@
     </row>
     <row r="1151" spans="1:2">
       <c r="A1151" t="s">
-        <v>4938</v>
+        <v>4937</v>
       </c>
       <c r="B1151" t="s">
         <v>362</v>
@@ -69956,7 +69851,7 @@
     </row>
     <row r="1152" spans="1:2">
       <c r="A1152" t="s">
-        <v>4939</v>
+        <v>4938</v>
       </c>
       <c r="B1152" t="s">
         <v>362</v>
@@ -69996,7 +69891,7 @@
     </row>
     <row r="1157" spans="1:2">
       <c r="A1157" t="s">
-        <v>4940</v>
+        <v>4939</v>
       </c>
       <c r="B1157" t="s">
         <v>364</v>
@@ -70004,7 +69899,7 @@
     </row>
     <row r="1158" spans="1:2">
       <c r="A1158" t="s">
-        <v>4941</v>
+        <v>4940</v>
       </c>
       <c r="B1158" t="s">
         <v>364</v>
@@ -70028,7 +69923,7 @@
     </row>
     <row r="1161" spans="1:2">
       <c r="A1161" t="s">
-        <v>4942</v>
+        <v>4941</v>
       </c>
       <c r="B1161" t="s">
         <v>365</v>
@@ -70036,7 +69931,7 @@
     </row>
     <row r="1162" spans="1:2">
       <c r="A1162" t="s">
-        <v>4943</v>
+        <v>4942</v>
       </c>
       <c r="B1162" t="s">
         <v>365</v>
@@ -70052,7 +69947,7 @@
     </row>
     <row r="1164" spans="1:2">
       <c r="A1164" t="s">
-        <v>4944</v>
+        <v>4943</v>
       </c>
       <c r="B1164" t="s">
         <v>365</v>
@@ -70060,7 +69955,7 @@
     </row>
     <row r="1165" spans="1:2">
       <c r="A1165" t="s">
-        <v>4945</v>
+        <v>4944</v>
       </c>
       <c r="B1165" t="s">
         <v>365</v>
@@ -70084,7 +69979,7 @@
     </row>
     <row r="1168" spans="1:2">
       <c r="A1168" t="s">
-        <v>4946</v>
+        <v>4945</v>
       </c>
       <c r="B1168" t="s">
         <v>366</v>
@@ -70092,7 +69987,7 @@
     </row>
     <row r="1169" spans="1:2">
       <c r="A1169" t="s">
-        <v>4947</v>
+        <v>4946</v>
       </c>
       <c r="B1169" t="s">
         <v>366</v>
@@ -70124,7 +70019,7 @@
     </row>
     <row r="1173" spans="1:2">
       <c r="A1173" t="s">
-        <v>4948</v>
+        <v>4947</v>
       </c>
       <c r="B1173" t="s">
         <v>367</v>
@@ -70132,7 +70027,7 @@
     </row>
     <row r="1174" spans="1:2">
       <c r="A1174" t="s">
-        <v>4949</v>
+        <v>4948</v>
       </c>
       <c r="B1174" t="s">
         <v>367</v>
@@ -70148,7 +70043,7 @@
     </row>
     <row r="1176" spans="1:2">
       <c r="A1176" t="s">
-        <v>4950</v>
+        <v>4949</v>
       </c>
       <c r="B1176" t="s">
         <v>367</v>
@@ -70180,7 +70075,7 @@
     </row>
     <row r="1180" spans="1:2">
       <c r="A1180" t="s">
-        <v>4951</v>
+        <v>4950</v>
       </c>
       <c r="B1180" t="s">
         <v>368</v>
@@ -70220,7 +70115,7 @@
     </row>
     <row r="1185" spans="1:2">
       <c r="A1185" t="s">
-        <v>4952</v>
+        <v>4951</v>
       </c>
       <c r="B1185" t="s">
         <v>370</v>
@@ -70228,7 +70123,7 @@
     </row>
     <row r="1186" spans="1:2">
       <c r="A1186" t="s">
-        <v>4953</v>
+        <v>4952</v>
       </c>
       <c r="B1186" t="s">
         <v>370</v>
@@ -70244,7 +70139,7 @@
     </row>
     <row r="1188" spans="1:2">
       <c r="A1188" t="s">
-        <v>4954</v>
+        <v>4953</v>
       </c>
       <c r="B1188" t="s">
         <v>370</v>
@@ -70252,7 +70147,7 @@
     </row>
     <row r="1189" spans="1:2">
       <c r="A1189" t="s">
-        <v>4955</v>
+        <v>4954</v>
       </c>
       <c r="B1189" t="s">
         <v>370</v>
@@ -70292,7 +70187,7 @@
     </row>
     <row r="1194" spans="1:2">
       <c r="A1194" t="s">
-        <v>4956</v>
+        <v>4955</v>
       </c>
       <c r="B1194" t="s">
         <v>372</v>
@@ -70300,7 +70195,7 @@
     </row>
     <row r="1195" spans="1:2">
       <c r="A1195" t="s">
-        <v>4957</v>
+        <v>4956</v>
       </c>
       <c r="B1195" t="s">
         <v>372</v>
@@ -70308,7 +70203,7 @@
     </row>
     <row r="1196" spans="1:2">
       <c r="A1196" t="s">
-        <v>4958</v>
+        <v>4957</v>
       </c>
       <c r="B1196" t="s">
         <v>372</v>
@@ -70340,7 +70235,7 @@
     </row>
     <row r="1200" spans="1:2">
       <c r="A1200" t="s">
-        <v>4959</v>
+        <v>4958</v>
       </c>
       <c r="B1200" t="s">
         <v>373</v>
@@ -70348,7 +70243,7 @@
     </row>
     <row r="1201" spans="1:2">
       <c r="A1201" t="s">
-        <v>4960</v>
+        <v>4959</v>
       </c>
       <c r="B1201" t="s">
         <v>373</v>
@@ -70372,7 +70267,7 @@
     </row>
     <row r="1204" spans="1:2">
       <c r="A1204" t="s">
-        <v>4961</v>
+        <v>4960</v>
       </c>
       <c r="B1204" t="s">
         <v>374</v>
@@ -70380,7 +70275,7 @@
     </row>
     <row r="1205" spans="1:2">
       <c r="A1205" t="s">
-        <v>4962</v>
+        <v>4961</v>
       </c>
       <c r="B1205" t="s">
         <v>374</v>
@@ -70388,7 +70283,7 @@
     </row>
     <row r="1206" spans="1:2">
       <c r="A1206" t="s">
-        <v>4963</v>
+        <v>4962</v>
       </c>
       <c r="B1206" t="s">
         <v>374</v>
@@ -70396,7 +70291,7 @@
     </row>
     <row r="1207" spans="1:2">
       <c r="A1207" t="s">
-        <v>4964</v>
+        <v>4963</v>
       </c>
       <c r="B1207" t="s">
         <v>374</v>
@@ -70404,7 +70299,7 @@
     </row>
     <row r="1208" spans="1:2">
       <c r="A1208" t="s">
-        <v>4965</v>
+        <v>4964</v>
       </c>
       <c r="B1208" t="s">
         <v>374</v>
@@ -70428,7 +70323,7 @@
     </row>
     <row r="1211" spans="1:2">
       <c r="A1211" t="s">
-        <v>4966</v>
+        <v>4965</v>
       </c>
       <c r="B1211" t="s">
         <v>375</v>
@@ -70444,7 +70339,7 @@
     </row>
     <row r="1213" spans="1:2">
       <c r="A1213" t="s">
-        <v>4967</v>
+        <v>4966</v>
       </c>
       <c r="B1213" t="s">
         <v>375</v>
@@ -70468,7 +70363,7 @@
     </row>
     <row r="1216" spans="1:2">
       <c r="A1216" t="s">
-        <v>4968</v>
+        <v>4967</v>
       </c>
       <c r="B1216" t="s">
         <v>376</v>
@@ -70484,7 +70379,7 @@
     </row>
     <row r="1218" spans="1:2">
       <c r="A1218" t="s">
-        <v>4969</v>
+        <v>4968</v>
       </c>
       <c r="B1218" t="s">
         <v>376</v>
@@ -70524,7 +70419,7 @@
     </row>
     <row r="1223" spans="1:2">
       <c r="A1223" t="s">
-        <v>4970</v>
+        <v>4969</v>
       </c>
       <c r="B1223" t="s">
         <v>378</v>
@@ -70532,7 +70427,7 @@
     </row>
     <row r="1224" spans="1:2">
       <c r="A1224" t="s">
-        <v>4971</v>
+        <v>4970</v>
       </c>
       <c r="B1224" t="s">
         <v>378</v>
@@ -70564,7 +70459,7 @@
     </row>
     <row r="1228" spans="1:2">
       <c r="A1228" t="s">
-        <v>4972</v>
+        <v>4971</v>
       </c>
       <c r="B1228" t="s">
         <v>379</v>
@@ -70604,7 +70499,7 @@
     </row>
     <row r="1233" spans="1:2">
       <c r="A1233" t="s">
-        <v>4973</v>
+        <v>4972</v>
       </c>
       <c r="B1233" t="s">
         <v>381</v>
@@ -70612,7 +70507,7 @@
     </row>
     <row r="1234" spans="1:2">
       <c r="A1234" t="s">
-        <v>4974</v>
+        <v>4973</v>
       </c>
       <c r="B1234" t="s">
         <v>381</v>
@@ -70620,7 +70515,7 @@
     </row>
     <row r="1235" spans="1:2">
       <c r="A1235" t="s">
-        <v>4975</v>
+        <v>4974</v>
       </c>
       <c r="B1235" t="s">
         <v>381</v>
@@ -70660,7 +70555,7 @@
     </row>
     <row r="1240" spans="1:2">
       <c r="A1240" t="s">
-        <v>4976</v>
+        <v>4975</v>
       </c>
       <c r="B1240" t="s">
         <v>382</v>
@@ -70668,7 +70563,7 @@
     </row>
     <row r="1241" spans="1:2">
       <c r="A1241" t="s">
-        <v>4977</v>
+        <v>4976</v>
       </c>
       <c r="B1241" t="s">
         <v>382</v>
@@ -70748,7 +70643,7 @@
     </row>
     <row r="1251" spans="1:2">
       <c r="A1251" t="s">
-        <v>4978</v>
+        <v>4977</v>
       </c>
       <c r="B1251" t="s">
         <v>386</v>
@@ -70756,7 +70651,7 @@
     </row>
     <row r="1252" spans="1:2">
       <c r="A1252" t="s">
-        <v>4979</v>
+        <v>4978</v>
       </c>
       <c r="B1252" t="s">
         <v>386</v>
@@ -70844,7 +70739,7 @@
     </row>
     <row r="1263" spans="1:2">
       <c r="A1263" t="s">
-        <v>4980</v>
+        <v>4979</v>
       </c>
       <c r="B1263" t="s">
         <v>391</v>
@@ -70860,7 +70755,7 @@
     </row>
     <row r="1265" spans="1:2">
       <c r="A1265" t="s">
-        <v>4981</v>
+        <v>4980</v>
       </c>
       <c r="B1265" t="s">
         <v>391</v>
@@ -70924,7 +70819,7 @@
     </row>
     <row r="1273" spans="1:2">
       <c r="A1273" t="s">
-        <v>4982</v>
+        <v>4981</v>
       </c>
       <c r="B1273" t="s">
         <v>394</v>
@@ -70932,7 +70827,7 @@
     </row>
     <row r="1274" spans="1:2">
       <c r="A1274" t="s">
-        <v>4983</v>
+        <v>4982</v>
       </c>
       <c r="B1274" t="s">
         <v>394</v>
@@ -70956,7 +70851,7 @@
     </row>
     <row r="1277" spans="1:2">
       <c r="A1277" t="s">
-        <v>4984</v>
+        <v>4983</v>
       </c>
       <c r="B1277" t="s">
         <v>395</v>
@@ -70964,7 +70859,7 @@
     </row>
     <row r="1278" spans="1:2">
       <c r="A1278" t="s">
-        <v>4985</v>
+        <v>4984</v>
       </c>
       <c r="B1278" t="s">
         <v>395</v>
@@ -70972,7 +70867,7 @@
     </row>
     <row r="1279" spans="1:2">
       <c r="A1279" t="s">
-        <v>4986</v>
+        <v>4985</v>
       </c>
       <c r="B1279" t="s">
         <v>395</v>
@@ -70996,7 +70891,7 @@
     </row>
     <row r="1282" spans="1:2">
       <c r="A1282" t="s">
-        <v>4987</v>
+        <v>4986</v>
       </c>
       <c r="B1282" t="s">
         <v>396</v>
@@ -71036,7 +70931,7 @@
     </row>
     <row r="1287" spans="1:2">
       <c r="A1287" t="s">
-        <v>4988</v>
+        <v>4987</v>
       </c>
       <c r="B1287" t="s">
         <v>398</v>
@@ -71044,7 +70939,7 @@
     </row>
     <row r="1288" spans="1:2">
       <c r="A1288" t="s">
-        <v>4989</v>
+        <v>4988</v>
       </c>
       <c r="B1288" t="s">
         <v>398</v>
@@ -71076,7 +70971,7 @@
     </row>
     <row r="1292" spans="1:2">
       <c r="A1292" t="s">
-        <v>4990</v>
+        <v>4989</v>
       </c>
       <c r="B1292" t="s">
         <v>399</v>
@@ -71084,7 +70979,7 @@
     </row>
     <row r="1293" spans="1:2">
       <c r="A1293" t="s">
-        <v>4991</v>
+        <v>4990</v>
       </c>
       <c r="B1293" t="s">
         <v>399</v>
@@ -71100,7 +70995,7 @@
     </row>
     <row r="1295" spans="1:2">
       <c r="A1295" t="s">
-        <v>4992</v>
+        <v>4991</v>
       </c>
       <c r="B1295" t="s">
         <v>400</v>
@@ -71108,7 +71003,7 @@
     </row>
     <row r="1296" spans="1:2">
       <c r="A1296" t="s">
-        <v>4993</v>
+        <v>4992</v>
       </c>
       <c r="B1296" t="s">
         <v>400</v>
@@ -71116,7 +71011,7 @@
     </row>
     <row r="1297" spans="1:2">
       <c r="A1297" t="s">
-        <v>4994</v>
+        <v>4993</v>
       </c>
       <c r="B1297" t="s">
         <v>400</v>
@@ -71124,7 +71019,7 @@
     </row>
     <row r="1298" spans="1:2">
       <c r="A1298" t="s">
-        <v>4995</v>
+        <v>4994</v>
       </c>
       <c r="B1298" t="s">
         <v>400</v>
@@ -71236,7 +71131,7 @@
     </row>
     <row r="1312" spans="1:2">
       <c r="A1312" t="s">
-        <v>4996</v>
+        <v>4995</v>
       </c>
       <c r="B1312" t="s">
         <v>406</v>
@@ -71244,7 +71139,7 @@
     </row>
     <row r="1313" spans="1:2">
       <c r="A1313" t="s">
-        <v>4997</v>
+        <v>4996</v>
       </c>
       <c r="B1313" t="s">
         <v>406</v>
@@ -71276,7 +71171,7 @@
     </row>
     <row r="1317" spans="1:2">
       <c r="A1317" t="s">
-        <v>4998</v>
+        <v>4997</v>
       </c>
       <c r="B1317" t="s">
         <v>407</v>
@@ -71284,7 +71179,7 @@
     </row>
     <row r="1318" spans="1:2">
       <c r="A1318" t="s">
-        <v>4999</v>
+        <v>4998</v>
       </c>
       <c r="B1318" t="s">
         <v>407</v>
@@ -71292,7 +71187,7 @@
     </row>
     <row r="1319" spans="1:2">
       <c r="A1319" t="s">
-        <v>5000</v>
+        <v>4999</v>
       </c>
       <c r="B1319" t="s">
         <v>407</v>
@@ -71316,7 +71211,7 @@
     </row>
     <row r="1322" spans="1:2">
       <c r="A1322" t="s">
-        <v>5001</v>
+        <v>5000</v>
       </c>
       <c r="B1322" t="s">
         <v>408</v>
@@ -71324,7 +71219,7 @@
     </row>
     <row r="1323" spans="1:2">
       <c r="A1323" t="s">
-        <v>5002</v>
+        <v>5001</v>
       </c>
       <c r="B1323" t="s">
         <v>408</v>
@@ -71332,7 +71227,7 @@
     </row>
     <row r="1324" spans="1:2">
       <c r="A1324" t="s">
-        <v>5003</v>
+        <v>5002</v>
       </c>
       <c r="B1324" t="s">
         <v>408</v>
@@ -71356,7 +71251,7 @@
     </row>
     <row r="1327" spans="1:2">
       <c r="A1327" t="s">
-        <v>5004</v>
+        <v>5003</v>
       </c>
       <c r="B1327" t="s">
         <v>409</v>
@@ -71364,7 +71259,7 @@
     </row>
     <row r="1328" spans="1:2">
       <c r="A1328" t="s">
-        <v>5005</v>
+        <v>5004</v>
       </c>
       <c r="B1328" t="s">
         <v>409</v>
@@ -71372,7 +71267,7 @@
     </row>
     <row r="1329" spans="1:2">
       <c r="A1329" t="s">
-        <v>5006</v>
+        <v>5005</v>
       </c>
       <c r="B1329" t="s">
         <v>409</v>
@@ -71396,7 +71291,7 @@
     </row>
     <row r="1332" spans="1:2">
       <c r="A1332" t="s">
-        <v>5007</v>
+        <v>5006</v>
       </c>
       <c r="B1332" t="s">
         <v>410</v>
@@ -71404,7 +71299,7 @@
     </row>
     <row r="1333" spans="1:2">
       <c r="A1333" t="s">
-        <v>5008</v>
+        <v>5007</v>
       </c>
       <c r="B1333" t="s">
         <v>410</v>
@@ -71436,7 +71331,7 @@
     </row>
     <row r="1337" spans="1:2">
       <c r="A1337" t="s">
-        <v>5009</v>
+        <v>5008</v>
       </c>
       <c r="B1337" t="s">
         <v>411</v>
@@ -71444,7 +71339,7 @@
     </row>
     <row r="1338" spans="1:2">
       <c r="A1338" t="s">
-        <v>5010</v>
+        <v>5009</v>
       </c>
       <c r="B1338" t="s">
         <v>411</v>
@@ -71468,7 +71363,7 @@
     </row>
     <row r="1341" spans="1:2">
       <c r="A1341" t="s">
-        <v>5011</v>
+        <v>5010</v>
       </c>
       <c r="B1341" t="s">
         <v>412</v>
@@ -71476,7 +71371,7 @@
     </row>
     <row r="1342" spans="1:2">
       <c r="A1342" t="s">
-        <v>5012</v>
+        <v>5011</v>
       </c>
       <c r="B1342" t="s">
         <v>412</v>
@@ -71484,7 +71379,7 @@
     </row>
     <row r="1343" spans="1:2">
       <c r="A1343" t="s">
-        <v>5013</v>
+        <v>5012</v>
       </c>
       <c r="B1343" t="s">
         <v>412</v>
@@ -71492,7 +71387,7 @@
     </row>
     <row r="1344" spans="1:2">
       <c r="A1344" t="s">
-        <v>5014</v>
+        <v>5013</v>
       </c>
       <c r="B1344" t="s">
         <v>412</v>
@@ -71500,7 +71395,7 @@
     </row>
     <row r="1345" spans="1:2">
       <c r="A1345" t="s">
-        <v>5015</v>
+        <v>5014</v>
       </c>
       <c r="B1345" t="s">
         <v>412</v>
@@ -71508,7 +71403,7 @@
     </row>
     <row r="1346" spans="1:2">
       <c r="A1346" t="s">
-        <v>5016</v>
+        <v>5015</v>
       </c>
       <c r="B1346" t="s">
         <v>412</v>
@@ -71532,7 +71427,7 @@
     </row>
     <row r="1349" spans="1:2">
       <c r="A1349" t="s">
-        <v>5017</v>
+        <v>5016</v>
       </c>
       <c r="B1349" t="s">
         <v>413</v>
@@ -71540,7 +71435,7 @@
     </row>
     <row r="1350" spans="1:2">
       <c r="A1350" t="s">
-        <v>5018</v>
+        <v>5017</v>
       </c>
       <c r="B1350" t="s">
         <v>413</v>
@@ -71548,7 +71443,7 @@
     </row>
     <row r="1351" spans="1:2">
       <c r="A1351" t="s">
-        <v>5019</v>
+        <v>5018</v>
       </c>
       <c r="B1351" t="s">
         <v>413</v>
@@ -71572,7 +71467,7 @@
     </row>
     <row r="1354" spans="1:2">
       <c r="A1354" t="s">
-        <v>5020</v>
+        <v>5019</v>
       </c>
       <c r="B1354" t="s">
         <v>414</v>
@@ -71588,7 +71483,7 @@
     </row>
     <row r="1356" spans="1:2">
       <c r="A1356" t="s">
-        <v>5021</v>
+        <v>5020</v>
       </c>
       <c r="B1356" t="s">
         <v>414</v>
@@ -71636,7 +71531,7 @@
     </row>
     <row r="1362" spans="1:2">
       <c r="A1362" t="s">
-        <v>5022</v>
+        <v>5021</v>
       </c>
       <c r="B1362" t="s">
         <v>416</v>
@@ -71644,7 +71539,7 @@
     </row>
     <row r="1363" spans="1:2">
       <c r="A1363" t="s">
-        <v>5023</v>
+        <v>5022</v>
       </c>
       <c r="B1363" t="s">
         <v>416</v>
@@ -71668,7 +71563,7 @@
     </row>
     <row r="1366" spans="1:2">
       <c r="A1366" t="s">
-        <v>5024</v>
+        <v>5023</v>
       </c>
       <c r="B1366" t="s">
         <v>417</v>
@@ -71676,7 +71571,7 @@
     </row>
     <row r="1367" spans="1:2">
       <c r="A1367" t="s">
-        <v>5025</v>
+        <v>5024</v>
       </c>
       <c r="B1367" t="s">
         <v>417</v>
@@ -71684,7 +71579,7 @@
     </row>
     <row r="1368" spans="1:2">
       <c r="A1368" t="s">
-        <v>5026</v>
+        <v>5025</v>
       </c>
       <c r="B1368" t="s">
         <v>417</v>
@@ -71716,7 +71611,7 @@
     </row>
     <row r="1372" spans="1:2">
       <c r="A1372" t="s">
-        <v>5027</v>
+        <v>5026</v>
       </c>
       <c r="B1372" t="s">
         <v>418</v>
@@ -71724,7 +71619,7 @@
     </row>
     <row r="1373" spans="1:2">
       <c r="A1373" t="s">
-        <v>5028</v>
+        <v>5027</v>
       </c>
       <c r="B1373" t="s">
         <v>418</v>
@@ -71748,7 +71643,7 @@
     </row>
     <row r="1376" spans="1:2">
       <c r="A1376" t="s">
-        <v>5029</v>
+        <v>5028</v>
       </c>
       <c r="B1376" t="s">
         <v>419</v>
@@ -71764,7 +71659,7 @@
     </row>
     <row r="1378" spans="1:2">
       <c r="A1378" t="s">
-        <v>5030</v>
+        <v>5029</v>
       </c>
       <c r="B1378" t="s">
         <v>419</v>
@@ -71788,7 +71683,7 @@
     </row>
     <row r="1381" spans="1:2">
       <c r="A1381" t="s">
-        <v>5031</v>
+        <v>5030</v>
       </c>
       <c r="B1381" t="s">
         <v>420</v>
@@ -71796,7 +71691,7 @@
     </row>
     <row r="1382" spans="1:2">
       <c r="A1382" t="s">
-        <v>5032</v>
+        <v>5031</v>
       </c>
       <c r="B1382" t="s">
         <v>420</v>
@@ -71828,7 +71723,7 @@
     </row>
     <row r="1386" spans="1:2">
       <c r="A1386" t="s">
-        <v>5033</v>
+        <v>5032</v>
       </c>
       <c r="B1386" t="s">
         <v>421</v>
@@ -71836,7 +71731,7 @@
     </row>
     <row r="1387" spans="1:2">
       <c r="A1387" t="s">
-        <v>5034</v>
+        <v>5033</v>
       </c>
       <c r="B1387" t="s">
         <v>421</v>
@@ -71916,7 +71811,7 @@
     </row>
     <row r="1397" spans="1:2">
       <c r="A1397" t="s">
-        <v>5035</v>
+        <v>5034</v>
       </c>
       <c r="B1397" t="s">
         <v>425</v>
@@ -71924,7 +71819,7 @@
     </row>
     <row r="1398" spans="1:2">
       <c r="A1398" t="s">
-        <v>5036</v>
+        <v>5035</v>
       </c>
       <c r="B1398" t="s">
         <v>425</v>
@@ -71948,7 +71843,7 @@
     </row>
     <row r="1401" spans="1:2">
       <c r="A1401" t="s">
-        <v>5037</v>
+        <v>5036</v>
       </c>
       <c r="B1401" t="s">
         <v>426</v>
@@ -71956,7 +71851,7 @@
     </row>
     <row r="1402" spans="1:2">
       <c r="A1402" t="s">
-        <v>5038</v>
+        <v>5037</v>
       </c>
       <c r="B1402" t="s">
         <v>426</v>
@@ -71980,7 +71875,7 @@
     </row>
     <row r="1405" spans="1:2">
       <c r="A1405" t="s">
-        <v>5039</v>
+        <v>5038</v>
       </c>
       <c r="B1405" t="s">
         <v>427</v>
@@ -71988,7 +71883,7 @@
     </row>
     <row r="1406" spans="1:2">
       <c r="A1406" t="s">
-        <v>5040</v>
+        <v>5039</v>
       </c>
       <c r="B1406" t="s">
         <v>427</v>
@@ -71996,7 +71891,7 @@
     </row>
     <row r="1407" spans="1:2">
       <c r="A1407" t="s">
-        <v>5041</v>
+        <v>5040</v>
       </c>
       <c r="B1407" t="s">
         <v>427</v>
@@ -72060,7 +71955,7 @@
     </row>
     <row r="1415" spans="1:2">
       <c r="A1415" t="s">
-        <v>5042</v>
+        <v>5041</v>
       </c>
       <c r="B1415" t="s">
         <v>430</v>
@@ -72068,7 +71963,7 @@
     </row>
     <row r="1416" spans="1:2">
       <c r="A1416" t="s">
-        <v>5043</v>
+        <v>5042</v>
       </c>
       <c r="B1416" t="s">
         <v>430</v>
@@ -72108,7 +72003,7 @@
     </row>
     <row r="1421" spans="1:2">
       <c r="A1421" t="s">
-        <v>5044</v>
+        <v>5043</v>
       </c>
       <c r="B1421" t="s">
         <v>432</v>
@@ -72116,7 +72011,7 @@
     </row>
     <row r="1422" spans="1:2">
       <c r="A1422" t="s">
-        <v>5045</v>
+        <v>5044</v>
       </c>
       <c r="B1422" t="s">
         <v>432</v>
@@ -72124,7 +72019,7 @@
     </row>
     <row r="1423" spans="1:2">
       <c r="A1423" t="s">
-        <v>5046</v>
+        <v>5045</v>
       </c>
       <c r="B1423" t="s">
         <v>432</v>
@@ -72156,7 +72051,7 @@
     </row>
     <row r="1427" spans="1:2">
       <c r="A1427" t="s">
-        <v>5047</v>
+        <v>5046</v>
       </c>
       <c r="B1427" t="s">
         <v>433</v>
@@ -72164,7 +72059,7 @@
     </row>
     <row r="1428" spans="1:2">
       <c r="A1428" t="s">
-        <v>5048</v>
+        <v>5047</v>
       </c>
       <c r="B1428" t="s">
         <v>433</v>
@@ -72188,7 +72083,7 @@
     </row>
     <row r="1431" spans="1:2">
       <c r="A1431" t="s">
-        <v>5049</v>
+        <v>5048</v>
       </c>
       <c r="B1431" t="s">
         <v>434</v>
@@ -72236,7 +72131,7 @@
     </row>
     <row r="1437" spans="1:2">
       <c r="A1437" t="s">
-        <v>5050</v>
+        <v>5049</v>
       </c>
       <c r="B1437" t="s">
         <v>436</v>
@@ -72260,7 +72155,7 @@
     </row>
     <row r="1440" spans="1:2">
       <c r="A1440" t="s">
-        <v>5051</v>
+        <v>5050</v>
       </c>
       <c r="B1440" t="s">
         <v>437</v>
@@ -72268,7 +72163,7 @@
     </row>
     <row r="1441" spans="1:2">
       <c r="A1441" t="s">
-        <v>5052</v>
+        <v>5051</v>
       </c>
       <c r="B1441" t="s">
         <v>437</v>
@@ -72284,7 +72179,7 @@
     </row>
     <row r="1443" spans="1:2">
       <c r="A1443" t="s">
-        <v>5053</v>
+        <v>5052</v>
       </c>
       <c r="B1443" t="s">
         <v>437</v>
@@ -72308,7 +72203,7 @@
     </row>
     <row r="1446" spans="1:2">
       <c r="A1446" t="s">
-        <v>5054</v>
+        <v>5053</v>
       </c>
       <c r="B1446" t="s">
         <v>438</v>
@@ -72324,7 +72219,7 @@
     </row>
     <row r="1448" spans="1:2">
       <c r="A1448" t="s">
-        <v>5055</v>
+        <v>5054</v>
       </c>
       <c r="B1448" t="s">
         <v>438</v>
@@ -72388,7 +72283,7 @@
     </row>
     <row r="1456" spans="1:2">
       <c r="A1456" t="s">
-        <v>5056</v>
+        <v>5055</v>
       </c>
       <c r="B1456" t="s">
         <v>441</v>
@@ -72396,7 +72291,7 @@
     </row>
     <row r="1457" spans="1:2">
       <c r="A1457" t="s">
-        <v>5057</v>
+        <v>5056</v>
       </c>
       <c r="B1457" t="s">
         <v>441</v>
@@ -72420,7 +72315,7 @@
     </row>
     <row r="1460" spans="1:2">
       <c r="A1460" t="s">
-        <v>5058</v>
+        <v>5057</v>
       </c>
       <c r="B1460" t="s">
         <v>442</v>
@@ -72428,7 +72323,7 @@
     </row>
     <row r="1461" spans="1:2">
       <c r="A1461" t="s">
-        <v>5059</v>
+        <v>5058</v>
       </c>
       <c r="B1461" t="s">
         <v>442</v>
@@ -72436,7 +72331,7 @@
     </row>
     <row r="1462" spans="1:2">
       <c r="A1462" t="s">
-        <v>5060</v>
+        <v>5059</v>
       </c>
       <c r="B1462" t="s">
         <v>442</v>
@@ -72452,7 +72347,7 @@
     </row>
     <row r="1464" spans="1:2">
       <c r="A1464" t="s">
-        <v>5061</v>
+        <v>5060</v>
       </c>
       <c r="B1464" t="s">
         <v>442</v>
@@ -72484,7 +72379,7 @@
     </row>
     <row r="1468" spans="1:2">
       <c r="A1468" t="s">
-        <v>5062</v>
+        <v>5061</v>
       </c>
       <c r="B1468" t="s">
         <v>443</v>
@@ -72492,7 +72387,7 @@
     </row>
     <row r="1469" spans="1:2">
       <c r="A1469" t="s">
-        <v>5063</v>
+        <v>5062</v>
       </c>
       <c r="B1469" t="s">
         <v>443</v>
@@ -72516,7 +72411,7 @@
     </row>
     <row r="1472" spans="1:2">
       <c r="A1472" t="s">
-        <v>5064</v>
+        <v>5063</v>
       </c>
       <c r="B1472" t="s">
         <v>444</v>
@@ -72524,7 +72419,7 @@
     </row>
     <row r="1473" spans="1:2">
       <c r="A1473" t="s">
-        <v>5065</v>
+        <v>5064</v>
       </c>
       <c r="B1473" t="s">
         <v>444</v>
@@ -72532,7 +72427,7 @@
     </row>
     <row r="1474" spans="1:2">
       <c r="A1474" t="s">
-        <v>5066</v>
+        <v>5065</v>
       </c>
       <c r="B1474" t="s">
         <v>444</v>
@@ -72588,7 +72483,7 @@
     </row>
     <row r="1481" spans="1:2">
       <c r="A1481" t="s">
-        <v>5067</v>
+        <v>5066</v>
       </c>
       <c r="B1481" t="s">
         <v>447</v>
@@ -72596,7 +72491,7 @@
     </row>
     <row r="1482" spans="1:2">
       <c r="A1482" t="s">
-        <v>5068</v>
+        <v>5067</v>
       </c>
       <c r="B1482" t="s">
         <v>447</v>
@@ -72604,7 +72499,7 @@
     </row>
     <row r="1483" spans="1:2">
       <c r="A1483" t="s">
-        <v>5069</v>
+        <v>5068</v>
       </c>
       <c r="B1483" t="s">
         <v>447</v>
@@ -72612,7 +72507,7 @@
     </row>
     <row r="1484" spans="1:2">
       <c r="A1484" t="s">
-        <v>5070</v>
+        <v>5069</v>
       </c>
       <c r="B1484" t="s">
         <v>447</v>
@@ -72628,7 +72523,7 @@
     </row>
     <row r="1486" spans="1:2">
       <c r="A1486" t="s">
-        <v>5071</v>
+        <v>5070</v>
       </c>
       <c r="B1486" t="s">
         <v>447</v>
@@ -72652,7 +72547,7 @@
     </row>
     <row r="1489" spans="1:2">
       <c r="A1489" t="s">
-        <v>5072</v>
+        <v>5071</v>
       </c>
       <c r="B1489" t="s">
         <v>448</v>
@@ -72668,7 +72563,7 @@
     </row>
     <row r="1491" spans="1:2">
       <c r="A1491" t="s">
-        <v>5073</v>
+        <v>5072</v>
       </c>
       <c r="B1491" t="s">
         <v>448</v>
@@ -72692,7 +72587,7 @@
     </row>
     <row r="1494" spans="1:2">
       <c r="A1494" t="s">
-        <v>5074</v>
+        <v>5073</v>
       </c>
       <c r="B1494" t="s">
         <v>449</v>
@@ -72708,7 +72603,7 @@
     </row>
     <row r="1496" spans="1:2">
       <c r="A1496" t="s">
-        <v>5075</v>
+        <v>5074</v>
       </c>
       <c r="B1496" t="s">
         <v>449</v>
@@ -72748,7 +72643,7 @@
     </row>
     <row r="1501" spans="1:2">
       <c r="A1501" t="s">
-        <v>5076</v>
+        <v>5075</v>
       </c>
       <c r="B1501" t="s">
         <v>451</v>
@@ -72780,7 +72675,7 @@
     </row>
     <row r="1505" spans="1:2">
       <c r="A1505" t="s">
-        <v>5077</v>
+        <v>5076</v>
       </c>
       <c r="B1505" t="s">
         <v>452</v>
@@ -72788,7 +72683,7 @@
     </row>
     <row r="1506" spans="1:2">
       <c r="A1506" t="s">
-        <v>5078</v>
+        <v>5077</v>
       </c>
       <c r="B1506" t="s">
         <v>452</v>
@@ -72924,7 +72819,7 @@
     </row>
     <row r="1523" spans="1:2">
       <c r="A1523" t="s">
-        <v>5079</v>
+        <v>5078</v>
       </c>
       <c r="B1523" t="s">
         <v>460</v>
@@ -72932,7 +72827,7 @@
     </row>
     <row r="1524" spans="1:2">
       <c r="A1524" t="s">
-        <v>5080</v>
+        <v>5079</v>
       </c>
       <c r="B1524" t="s">
         <v>460</v>
@@ -72940,7 +72835,7 @@
     </row>
     <row r="1525" spans="1:2">
       <c r="A1525" t="s">
-        <v>5081</v>
+        <v>5080</v>
       </c>
       <c r="B1525" t="s">
         <v>460</v>
@@ -72948,7 +72843,7 @@
     </row>
     <row r="1526" spans="1:2">
       <c r="A1526" t="s">
-        <v>5082</v>
+        <v>5081</v>
       </c>
       <c r="B1526" t="s">
         <v>460</v>
@@ -73004,7 +72899,7 @@
     </row>
     <row r="1533" spans="1:2">
       <c r="A1533" t="s">
-        <v>5083</v>
+        <v>5082</v>
       </c>
       <c r="B1533" t="s">
         <v>463</v>
@@ -73028,7 +72923,7 @@
     </row>
     <row r="1536" spans="1:2">
       <c r="A1536" t="s">
-        <v>5084</v>
+        <v>5083</v>
       </c>
       <c r="B1536" t="s">
         <v>464</v>
@@ -73044,7 +72939,7 @@
     </row>
     <row r="1538" spans="1:2">
       <c r="A1538" t="s">
-        <v>5085</v>
+        <v>5084</v>
       </c>
       <c r="B1538" t="s">
         <v>464</v>
@@ -73068,7 +72963,7 @@
     </row>
     <row r="1541" spans="1:2">
       <c r="A1541" t="s">
-        <v>5086</v>
+        <v>5085</v>
       </c>
       <c r="B1541" t="s">
         <v>465</v>
@@ -73084,7 +72979,7 @@
     </row>
     <row r="1543" spans="1:2">
       <c r="A1543" t="s">
-        <v>5087</v>
+        <v>5086</v>
       </c>
       <c r="B1543" t="s">
         <v>465</v>
@@ -73108,7 +73003,7 @@
     </row>
     <row r="1546" spans="1:2">
       <c r="A1546" t="s">
-        <v>5088</v>
+        <v>5087</v>
       </c>
       <c r="B1546" t="s">
         <v>466</v>
@@ -73156,7 +73051,7 @@
     </row>
     <row r="1552" spans="1:2">
       <c r="A1552" t="s">
-        <v>5089</v>
+        <v>5088</v>
       </c>
       <c r="B1552" t="s">
         <v>468</v>
@@ -73164,7 +73059,7 @@
     </row>
     <row r="1553" spans="1:2">
       <c r="A1553" t="s">
-        <v>5090</v>
+        <v>5089</v>
       </c>
       <c r="B1553" t="s">
         <v>468</v>
@@ -73220,7 +73115,7 @@
     </row>
     <row r="1560" spans="1:2">
       <c r="A1560" t="s">
-        <v>5091</v>
+        <v>5090</v>
       </c>
       <c r="B1560" t="s">
         <v>471</v>
@@ -73228,7 +73123,7 @@
     </row>
     <row r="1561" spans="1:2">
       <c r="A1561" t="s">
-        <v>5092</v>
+        <v>5091</v>
       </c>
       <c r="B1561" t="s">
         <v>471</v>
@@ -73236,7 +73131,7 @@
     </row>
     <row r="1562" spans="1:2">
       <c r="A1562" t="s">
-        <v>5093</v>
+        <v>5092</v>
       </c>
       <c r="B1562" t="s">
         <v>471</v>
@@ -73292,7 +73187,7 @@
     </row>
     <row r="1569" spans="1:2">
       <c r="A1569" t="s">
-        <v>5094</v>
+        <v>5093</v>
       </c>
       <c r="B1569" t="s">
         <v>474</v>
@@ -73300,7 +73195,7 @@
     </row>
     <row r="1570" spans="1:2">
       <c r="A1570" t="s">
-        <v>5095</v>
+        <v>5094</v>
       </c>
       <c r="B1570" t="s">
         <v>474</v>
@@ -73308,7 +73203,7 @@
     </row>
     <row r="1571" spans="1:2">
       <c r="A1571" t="s">
-        <v>5096</v>
+        <v>5095</v>
       </c>
       <c r="B1571" t="s">
         <v>474</v>
@@ -73316,7 +73211,7 @@
     </row>
     <row r="1572" spans="1:2">
       <c r="A1572" t="s">
-        <v>5097</v>
+        <v>5096</v>
       </c>
       <c r="B1572" t="s">
         <v>474</v>
@@ -73324,7 +73219,7 @@
     </row>
     <row r="1573" spans="1:2">
       <c r="A1573" t="s">
-        <v>5098</v>
+        <v>5097</v>
       </c>
       <c r="B1573" t="s">
         <v>474</v>
@@ -73428,7 +73323,7 @@
     </row>
     <row r="1586" spans="1:2">
       <c r="A1586" t="s">
-        <v>5099</v>
+        <v>5098</v>
       </c>
       <c r="B1586" t="s">
         <v>480</v>
@@ -73436,7 +73331,7 @@
     </row>
     <row r="1587" spans="1:2">
       <c r="A1587" t="s">
-        <v>5100</v>
+        <v>5099</v>
       </c>
       <c r="B1587" t="s">
         <v>480</v>
@@ -73444,7 +73339,7 @@
     </row>
     <row r="1588" spans="1:2">
       <c r="A1588" t="s">
-        <v>5101</v>
+        <v>5100</v>
       </c>
       <c r="B1588" t="s">
         <v>480</v>
@@ -73468,7 +73363,7 @@
     </row>
     <row r="1591" spans="1:2">
       <c r="A1591" t="s">
-        <v>5102</v>
+        <v>5101</v>
       </c>
       <c r="B1591" t="s">
         <v>481</v>
@@ -73476,7 +73371,7 @@
     </row>
     <row r="1592" spans="1:2">
       <c r="A1592" t="s">
-        <v>5103</v>
+        <v>5102</v>
       </c>
       <c r="B1592" t="s">
         <v>481</v>
@@ -73484,7 +73379,7 @@
     </row>
     <row r="1593" spans="1:2">
       <c r="A1593" t="s">
-        <v>5104</v>
+        <v>5103</v>
       </c>
       <c r="B1593" t="s">
         <v>481</v>
@@ -73508,7 +73403,7 @@
     </row>
     <row r="1596" spans="1:2">
       <c r="A1596" t="s">
-        <v>5105</v>
+        <v>5104</v>
       </c>
       <c r="B1596" t="s">
         <v>482</v>
@@ -73516,7 +73411,7 @@
     </row>
     <row r="1597" spans="1:2">
       <c r="A1597" t="s">
-        <v>5106</v>
+        <v>5105</v>
       </c>
       <c r="B1597" t="s">
         <v>482</v>
@@ -73524,7 +73419,7 @@
     </row>
     <row r="1598" spans="1:2">
       <c r="A1598" t="s">
-        <v>5107</v>
+        <v>5106</v>
       </c>
       <c r="B1598" t="s">
         <v>482</v>
@@ -73548,7 +73443,7 @@
     </row>
     <row r="1601" spans="1:2">
       <c r="A1601" t="s">
-        <v>5108</v>
+        <v>5107</v>
       </c>
       <c r="B1601" t="s">
         <v>483</v>
@@ -73556,7 +73451,7 @@
     </row>
     <row r="1602" spans="1:2">
       <c r="A1602" t="s">
-        <v>5109</v>
+        <v>5108</v>
       </c>
       <c r="B1602" t="s">
         <v>483</v>
@@ -73644,7 +73539,7 @@
     </row>
     <row r="1613" spans="1:2">
       <c r="A1613" t="s">
-        <v>5110</v>
+        <v>5109</v>
       </c>
       <c r="B1613" t="s">
         <v>488</v>
@@ -73668,7 +73563,7 @@
     </row>
     <row r="1616" spans="1:2">
       <c r="A1616" t="s">
-        <v>5111</v>
+        <v>5110</v>
       </c>
       <c r="B1616" t="s">
         <v>489</v>
@@ -73676,7 +73571,7 @@
     </row>
     <row r="1617" spans="1:2">
       <c r="A1617" t="s">
-        <v>5112</v>
+        <v>5111</v>
       </c>
       <c r="B1617" t="s">
         <v>489</v>
@@ -73684,7 +73579,7 @@
     </row>
     <row r="1618" spans="1:2">
       <c r="A1618" t="s">
-        <v>5113</v>
+        <v>5112</v>
       </c>
       <c r="B1618" t="s">
         <v>489</v>
@@ -73716,7 +73611,7 @@
     </row>
     <row r="1622" spans="1:2">
       <c r="A1622" t="s">
-        <v>5114</v>
+        <v>5113</v>
       </c>
       <c r="B1622" t="s">
         <v>490</v>
@@ -73724,7 +73619,7 @@
     </row>
     <row r="1623" spans="1:2">
       <c r="A1623" t="s">
-        <v>5115</v>
+        <v>5114</v>
       </c>
       <c r="B1623" t="s">
         <v>490</v>
@@ -73748,7 +73643,7 @@
     </row>
     <row r="1626" spans="1:2">
       <c r="A1626" t="s">
-        <v>5116</v>
+        <v>5115</v>
       </c>
       <c r="B1626" t="s">
         <v>491</v>
@@ -73764,7 +73659,7 @@
     </row>
     <row r="1628" spans="1:2">
       <c r="A1628" t="s">
-        <v>5117</v>
+        <v>5116</v>
       </c>
       <c r="B1628" t="s">
         <v>491</v>
@@ -73812,7 +73707,7 @@
     </row>
     <row r="1634" spans="1:2">
       <c r="A1634" t="s">
-        <v>5118</v>
+        <v>5117</v>
       </c>
       <c r="B1634" t="s">
         <v>493</v>
@@ -73820,7 +73715,7 @@
     </row>
     <row r="1635" spans="1:2">
       <c r="A1635" t="s">
-        <v>5119</v>
+        <v>5118</v>
       </c>
       <c r="B1635" t="s">
         <v>493</v>
@@ -73844,7 +73739,7 @@
     </row>
     <row r="1638" spans="1:2">
       <c r="A1638" t="s">
-        <v>5120</v>
+        <v>5119</v>
       </c>
       <c r="B1638" t="s">
         <v>494</v>
@@ -73852,7 +73747,7 @@
     </row>
     <row r="1639" spans="1:2">
       <c r="A1639" t="s">
-        <v>5121</v>
+        <v>5120</v>
       </c>
       <c r="B1639" t="s">
         <v>494</v>
@@ -73860,7 +73755,7 @@
     </row>
     <row r="1640" spans="1:2">
       <c r="A1640" t="s">
-        <v>5122</v>
+        <v>5121</v>
       </c>
       <c r="B1640" t="s">
         <v>494</v>
@@ -73884,7 +73779,7 @@
     </row>
     <row r="1643" spans="1:2">
       <c r="A1643" t="s">
-        <v>5123</v>
+        <v>5122</v>
       </c>
       <c r="B1643" t="s">
         <v>495</v>
@@ -73892,7 +73787,7 @@
     </row>
     <row r="1644" spans="1:2">
       <c r="A1644" t="s">
-        <v>5124</v>
+        <v>5123</v>
       </c>
       <c r="B1644" t="s">
         <v>495</v>
@@ -73900,7 +73795,7 @@
     </row>
     <row r="1645" spans="1:2">
       <c r="A1645" t="s">
-        <v>5125</v>
+        <v>5124</v>
       </c>
       <c r="B1645" t="s">
         <v>495</v>
@@ -73932,7 +73827,7 @@
     </row>
     <row r="1649" spans="1:2">
       <c r="A1649" t="s">
-        <v>5126</v>
+        <v>5125</v>
       </c>
       <c r="B1649" t="s">
         <v>496</v>
@@ -73940,7 +73835,7 @@
     </row>
     <row r="1650" spans="1:2">
       <c r="A1650" t="s">
-        <v>5127</v>
+        <v>5126</v>
       </c>
       <c r="B1650" t="s">
         <v>496</v>
@@ -73964,7 +73859,7 @@
     </row>
     <row r="1653" spans="1:2">
       <c r="A1653" t="s">
-        <v>5128</v>
+        <v>5127</v>
       </c>
       <c r="B1653" t="s">
         <v>497</v>
@@ -73972,7 +73867,7 @@
     </row>
     <row r="1654" spans="1:2">
       <c r="A1654" t="s">
-        <v>5129</v>
+        <v>5128</v>
       </c>
       <c r="B1654" t="s">
         <v>497</v>
@@ -73996,7 +73891,7 @@
     </row>
     <row r="1657" spans="1:2">
       <c r="A1657" t="s">
-        <v>5130</v>
+        <v>5129</v>
       </c>
       <c r="B1657" t="s">
         <v>498</v>
@@ -74004,7 +73899,7 @@
     </row>
     <row r="1658" spans="1:2">
       <c r="A1658" t="s">
-        <v>5131</v>
+        <v>5130</v>
       </c>
       <c r="B1658" t="s">
         <v>498</v>
@@ -74020,7 +73915,7 @@
     </row>
     <row r="1660" spans="1:2">
       <c r="A1660" t="s">
-        <v>5132</v>
+        <v>5131</v>
       </c>
       <c r="B1660" t="s">
         <v>498</v>
@@ -74060,7 +73955,7 @@
     </row>
     <row r="1665" spans="1:2">
       <c r="A1665" t="s">
-        <v>5133</v>
+        <v>5132</v>
       </c>
       <c r="B1665" t="s">
         <v>500</v>
@@ -74076,7 +73971,7 @@
     </row>
     <row r="1667" spans="1:2">
       <c r="A1667" t="s">
-        <v>5134</v>
+        <v>5133</v>
       </c>
       <c r="B1667" t="s">
         <v>500</v>
@@ -74100,7 +73995,7 @@
     </row>
     <row r="1670" spans="1:2">
       <c r="A1670" t="s">
-        <v>5135</v>
+        <v>5134</v>
       </c>
       <c r="B1670" t="s">
         <v>501</v>
@@ -74108,7 +74003,7 @@
     </row>
     <row r="1671" spans="1:2">
       <c r="A1671" t="s">
-        <v>5136</v>
+        <v>5135</v>
       </c>
       <c r="B1671" t="s">
         <v>501</v>
@@ -74116,7 +74011,7 @@
     </row>
     <row r="1672" spans="1:2">
       <c r="A1672" t="s">
-        <v>5137</v>
+        <v>5136</v>
       </c>
       <c r="B1672" t="s">
         <v>501</v>
@@ -74164,7 +74059,7 @@
     </row>
     <row r="1678" spans="1:2">
       <c r="A1678" t="s">
-        <v>5138</v>
+        <v>5137</v>
       </c>
       <c r="B1678" t="s">
         <v>503</v>
@@ -74172,7 +74067,7 @@
     </row>
     <row r="1679" spans="1:2">
       <c r="A1679" t="s">
-        <v>5139</v>
+        <v>5138</v>
       </c>
       <c r="B1679" t="s">
         <v>503</v>
@@ -74180,7 +74075,7 @@
     </row>
     <row r="1680" spans="1:2">
       <c r="A1680" t="s">
-        <v>5140</v>
+        <v>5139</v>
       </c>
       <c r="B1680" t="s">
         <v>503</v>
@@ -74220,7 +74115,7 @@
     </row>
     <row r="1685" spans="1:2">
       <c r="A1685" t="s">
-        <v>5141</v>
+        <v>5140</v>
       </c>
       <c r="B1685" t="s">
         <v>505</v>
@@ -74236,7 +74131,7 @@
     </row>
     <row r="1687" spans="1:2">
       <c r="A1687" t="s">
-        <v>5142</v>
+        <v>5141</v>
       </c>
       <c r="B1687" t="s">
         <v>505</v>
@@ -74268,7 +74163,7 @@
     </row>
     <row r="1691" spans="1:2">
       <c r="A1691" t="s">
-        <v>5143</v>
+        <v>5142</v>
       </c>
       <c r="B1691" t="s">
         <v>506</v>
@@ -74276,7 +74171,7 @@
     </row>
     <row r="1692" spans="1:2">
       <c r="A1692" t="s">
-        <v>5144</v>
+        <v>5143</v>
       </c>
       <c r="B1692" t="s">
         <v>506</v>
@@ -74300,7 +74195,7 @@
     </row>
     <row r="1695" spans="1:2">
       <c r="A1695" t="s">
-        <v>5145</v>
+        <v>5144</v>
       </c>
       <c r="B1695" t="s">
         <v>507</v>
@@ -74348,7 +74243,7 @@
     </row>
     <row r="1701" spans="1:2">
       <c r="A1701" t="s">
-        <v>5146</v>
+        <v>5145</v>
       </c>
       <c r="B1701" t="s">
         <v>509</v>
@@ -74356,7 +74251,7 @@
     </row>
     <row r="1702" spans="1:2">
       <c r="A1702" t="s">
-        <v>5147</v>
+        <v>5146</v>
       </c>
       <c r="B1702" t="s">
         <v>509</v>
@@ -74380,7 +74275,7 @@
     </row>
     <row r="1705" spans="1:2">
       <c r="A1705" t="s">
-        <v>5148</v>
+        <v>5147</v>
       </c>
       <c r="B1705" t="s">
         <v>510</v>
@@ -74396,7 +74291,7 @@
     </row>
     <row r="1707" spans="1:2">
       <c r="A1707" t="s">
-        <v>5149</v>
+        <v>5148</v>
       </c>
       <c r="B1707" t="s">
         <v>510</v>
@@ -74420,7 +74315,7 @@
     </row>
     <row r="1710" spans="1:2">
       <c r="A1710" t="s">
-        <v>5150</v>
+        <v>5149</v>
       </c>
       <c r="B1710" t="s">
         <v>511</v>
@@ -74428,7 +74323,7 @@
     </row>
     <row r="1711" spans="1:2">
       <c r="A1711" t="s">
-        <v>5151</v>
+        <v>5150</v>
       </c>
       <c r="B1711" t="s">
         <v>511</v>
@@ -74444,7 +74339,7 @@
     </row>
     <row r="1713" spans="1:2">
       <c r="A1713" t="s">
-        <v>5152</v>
+        <v>5151</v>
       </c>
       <c r="B1713" t="s">
         <v>511</v>
@@ -74484,7 +74379,7 @@
     </row>
     <row r="1718" spans="1:2">
       <c r="A1718" t="s">
-        <v>5153</v>
+        <v>5152</v>
       </c>
       <c r="B1718" t="s">
         <v>513</v>
@@ -74492,7 +74387,7 @@
     </row>
     <row r="1719" spans="1:2">
       <c r="A1719" t="s">
-        <v>5154</v>
+        <v>5153</v>
       </c>
       <c r="B1719" t="s">
         <v>513</v>
@@ -74508,7 +74403,7 @@
     </row>
     <row r="1721" spans="1:2">
       <c r="A1721" t="s">
-        <v>5155</v>
+        <v>5154</v>
       </c>
       <c r="B1721" t="s">
         <v>513</v>
@@ -74548,7 +74443,7 @@
     </row>
     <row r="1726" spans="1:2">
       <c r="A1726" t="s">
-        <v>5156</v>
+        <v>5155</v>
       </c>
       <c r="B1726" t="s">
         <v>515</v>
@@ -74556,7 +74451,7 @@
     </row>
     <row r="1727" spans="1:2">
       <c r="A1727" t="s">
-        <v>5157</v>
+        <v>5156</v>
       </c>
       <c r="B1727" t="s">
         <v>515</v>
@@ -74564,7 +74459,7 @@
     </row>
     <row r="1728" spans="1:2">
       <c r="A1728" t="s">
-        <v>5158</v>
+        <v>5157</v>
       </c>
       <c r="B1728" t="s">
         <v>515</v>
@@ -74660,7 +74555,7 @@
     </row>
     <row r="1740" spans="1:2">
       <c r="A1740" t="s">
-        <v>5159</v>
+        <v>5158</v>
       </c>
       <c r="B1740" t="s">
         <v>520</v>
@@ -74668,7 +74563,7 @@
     </row>
     <row r="1741" spans="1:2">
       <c r="A1741" t="s">
-        <v>5160</v>
+        <v>5159</v>
       </c>
       <c r="B1741" t="s">
         <v>520</v>
@@ -74692,7 +74587,7 @@
     </row>
     <row r="1744" spans="1:2">
       <c r="A1744" t="s">
-        <v>5161</v>
+        <v>5160</v>
       </c>
       <c r="B1744" t="s">
         <v>521</v>
@@ -74700,7 +74595,7 @@
     </row>
     <row r="1745" spans="1:2">
       <c r="A1745" t="s">
-        <v>5162</v>
+        <v>5161</v>
       </c>
       <c r="B1745" t="s">
         <v>521</v>
@@ -74732,7 +74627,7 @@
     </row>
     <row r="1749" spans="1:2">
       <c r="A1749" t="s">
-        <v>5163</v>
+        <v>5162</v>
       </c>
       <c r="B1749" t="s">
         <v>522</v>
@@ -74740,7 +74635,7 @@
     </row>
     <row r="1750" spans="1:2">
       <c r="A1750" t="s">
-        <v>5164</v>
+        <v>5163</v>
       </c>
       <c r="B1750" t="s">
         <v>522</v>
@@ -74748,7 +74643,7 @@
     </row>
     <row r="1751" spans="1:2">
       <c r="A1751" t="s">
-        <v>5165</v>
+        <v>5164</v>
       </c>
       <c r="B1751" t="s">
         <v>522</v>
@@ -74797,10 +74692,10 @@
     </row>
     <row r="2" spans="1:6">
       <c r="A2" t="s">
-        <v>4496</v>
+        <v>4495</v>
       </c>
       <c r="B2" t="s">
-        <v>5166</v>
+        <v>5165</v>
       </c>
       <c r="C2" t="s">
         <v>4480</v>
@@ -74810,9 +74705,6 @@
       </c>
       <c r="E2" t="s">
         <v>4485</v>
-      </c>
-      <c r="F2" t="s">
-        <v>4486</v>
       </c>
     </row>
     <row r="3" spans="1:6">
@@ -74820,7 +74712,7 @@
         <v>23</v>
       </c>
       <c r="B3" t="s">
-        <v>4495</v>
+        <v>4494</v>
       </c>
       <c r="C3" t="s">
         <v>4480</v>
@@ -74830,9 +74722,6 @@
       </c>
       <c r="E3" t="s">
         <v>4485</v>
-      </c>
-      <c r="F3" t="s">
-        <v>4486</v>
       </c>
     </row>
   </sheetData>
